--- a/Server/Notebooks/FINGERPRINT/results_fingerprinting.xlsx
+++ b/Server/Notebooks/FINGERPRINT/results_fingerprinting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\College\5th Year College\TESE\Desenvolvimento\Code\Application\findLocationApp\findLocation\Server\Notebooks\FINGERPRINT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A953AD4C-F088-4005-BD69-52E5C6A997B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D90CFFDB-B5BB-4A17-86D9-87AFC7F2659A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{22682DBA-70EE-47D9-880F-69553294C7AC}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="86">
   <si>
     <t>DATASET USED</t>
   </si>
@@ -83,21 +83,6 @@
     <t>MLP</t>
   </si>
   <si>
-    <t>dataset_train_university.csv</t>
-  </si>
-  <si>
-    <t>0.770727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.802092	</t>
-  </si>
-  <si>
-    <t>0.894949</t>
-  </si>
-  <si>
-    <t>0.653254</t>
-  </si>
-  <si>
     <t>University Training Dataset Score</t>
   </si>
   <si>
@@ -105,30 +90,6 @@
   </si>
   <si>
     <t xml:space="preserve">UNIVERSITY TRAINING DATASET </t>
-  </si>
-  <si>
-    <t>Different Beacon Score</t>
-  </si>
-  <si>
-    <t>DIFFERENT ENVIRONMENT / SAME DEVICE / BIG DATASET</t>
-  </si>
-  <si>
-    <t>Different Environment / Big Dataset</t>
-  </si>
-  <si>
-    <t>BEACON DEPENDABILITY/COHERSION / SMALL DATASET</t>
-  </si>
-  <si>
-    <t>DIFFERENT ENVIRONMENT / SAME DEVICE / SMALL DATASET</t>
-  </si>
-  <si>
-    <t>Different Environment / Small Dataset</t>
-  </si>
-  <si>
-    <t>DIFFERENT ENVIRONMENT / DIFFERENT DEVICE / SMALL DATASET</t>
-  </si>
-  <si>
-    <t>ASUS ZENFONE LIVE (ANDROID 6)</t>
   </si>
   <si>
     <t>CONCLUSIONS</t>
@@ -146,199 +107,7 @@
     <t>LINEAR REGRESSION</t>
   </si>
   <si>
-    <t>0.591699</t>
-  </si>
-  <si>
-    <t>0.522432</t>
-  </si>
-  <si>
-    <t>0.785904</t>
-  </si>
-  <si>
-    <t>0.417190</t>
-  </si>
-  <si>
     <t>R2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.478591	</t>
-  </si>
-  <si>
-    <t>0.709300</t>
-  </si>
-  <si>
-    <t>0.755309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.788261	</t>
-  </si>
-  <si>
-    <t>0.964720</t>
-  </si>
-  <si>
-    <t>0.547352</t>
-  </si>
-  <si>
-    <t>0.623279</t>
-  </si>
-  <si>
-    <t>0.826700</t>
-  </si>
-  <si>
-    <t>0.667606</t>
-  </si>
-  <si>
-    <t>0.459243</t>
-  </si>
-  <si>
-    <t>0.772955</t>
-  </si>
-  <si>
-    <t>0.709419</t>
-  </si>
-  <si>
-    <t>0.792349</t>
-  </si>
-  <si>
-    <t>1.092299</t>
-  </si>
-  <si>
-    <t>0.415207</t>
-  </si>
-  <si>
-    <t>0.804222</t>
-  </si>
-  <si>
-    <t>0.986332</t>
-  </si>
-  <si>
-    <t>0.523168</t>
-  </si>
-  <si>
-    <t>0.790095</t>
-  </si>
-  <si>
-    <t>1.107381</t>
-  </si>
-  <si>
-    <t>0.398946</t>
-  </si>
-  <si>
-    <t>1.082622</t>
-  </si>
-  <si>
-    <t>1.378281</t>
-  </si>
-  <si>
-    <t>0.068903</t>
-  </si>
-  <si>
-    <t>0.456959</t>
-  </si>
-  <si>
-    <t>0.646798</t>
-  </si>
-  <si>
-    <t>0.680732</t>
-  </si>
-  <si>
-    <t>0.549926</t>
-  </si>
-  <si>
-    <t>0.628517</t>
-  </si>
-  <si>
-    <t>0.698524</t>
-  </si>
-  <si>
-    <t>0.578331</t>
-  </si>
-  <si>
-    <t>0.711727</t>
-  </si>
-  <si>
-    <t>0.613415</t>
-  </si>
-  <si>
-    <t>0.731374</t>
-  </si>
-  <si>
-    <t>0.947848</t>
-  </si>
-  <si>
-    <t>0.314361</t>
-  </si>
-  <si>
-    <t>0.609939</t>
-  </si>
-  <si>
-    <t>0.924156</t>
-  </si>
-  <si>
-    <t>0.346545</t>
-  </si>
-  <si>
-    <t>0.654051</t>
-  </si>
-  <si>
-    <t>0.870916</t>
-  </si>
-  <si>
-    <t>0.419666</t>
-  </si>
-  <si>
-    <t>0.714681</t>
-  </si>
-  <si>
-    <t>1.005103</t>
-  </si>
-  <si>
-    <t>0.227058</t>
-  </si>
-  <si>
-    <t>0.893288</t>
-  </si>
-  <si>
-    <t>1.171690</t>
-  </si>
-  <si>
-    <t>0.050390</t>
-  </si>
-  <si>
-    <t>0.661165</t>
-  </si>
-  <si>
-    <t>0.887742</t>
-  </si>
-  <si>
-    <t>0.391453</t>
-  </si>
-  <si>
-    <t>0.728780</t>
-  </si>
-  <si>
-    <t>0.881859</t>
-  </si>
-  <si>
-    <t>0.399493</t>
-  </si>
-  <si>
-    <t>0.735414</t>
-  </si>
-  <si>
-    <t>0.980193</t>
-  </si>
-  <si>
-    <t>0.258103</t>
-  </si>
-  <si>
-    <t>0.960265</t>
-  </si>
-  <si>
-    <t>1.200156</t>
-  </si>
-  <si>
-    <t>0.112233</t>
   </si>
   <si>
     <t>KNN IS THE BEST ONE</t>
@@ -442,6 +211,87 @@
   <si>
     <t>FINGERPRINTING REGRESSION RESULTS</t>
   </si>
+  <si>
+    <t>0.317262</t>
+  </si>
+  <si>
+    <t>0.450671</t>
+  </si>
+  <si>
+    <t>0.085991</t>
+  </si>
+  <si>
+    <t>0.160582</t>
+  </si>
+  <si>
+    <t>0.909212</t>
+  </si>
+  <si>
+    <t>0.602620</t>
+  </si>
+  <si>
+    <t>0.292113</t>
+  </si>
+  <si>
+    <t>0.875494</t>
+  </si>
+  <si>
+    <t>0.705709</t>
+  </si>
+  <si>
+    <t>0.548867</t>
+  </si>
+  <si>
+    <t>0.941145</t>
+  </si>
+  <si>
+    <t>0.485201</t>
+  </si>
+  <si>
+    <t>0.260042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIFFERENT ENVIRONMENT / BLE </t>
+  </si>
+  <si>
+    <t>Different Environment | BLE</t>
+  </si>
+  <si>
+    <t>DIFFERENT ENVIRONMENT / BLE v2</t>
+  </si>
+  <si>
+    <t>Different Environment | BLE v2</t>
+  </si>
+  <si>
+    <t>2.200061</t>
+  </si>
+  <si>
+    <t>1.906570</t>
+  </si>
+  <si>
+    <t>1.644998</t>
+  </si>
+  <si>
+    <t>1.445909</t>
+  </si>
+  <si>
+    <t>2.832082</t>
+  </si>
+  <si>
+    <t>2.501242</t>
+  </si>
+  <si>
+    <t>2.440227</t>
+  </si>
+  <si>
+    <t>2.736800</t>
+  </si>
+  <si>
+    <t>1.924238</t>
+  </si>
+  <si>
+    <t>2.210096</t>
+  </si>
 </sst>
 </file>
 
@@ -500,7 +350,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -558,6 +408,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -641,7 +497,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -695,14 +551,8 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -720,11 +570,76 @@
     <xf numFmtId="49" fontId="4" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="169">
+  <dxfs count="202">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -753,6 +668,83 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i/>
@@ -768,6 +760,62 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="4" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
@@ -837,7 +885,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -845,34 +900,6 @@
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -906,6 +933,62 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="4" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
@@ -931,6 +1014,83 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i/>
@@ -946,6 +1106,62 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="4" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
@@ -1036,6 +1252,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="7" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
@@ -1082,6 +1319,34 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i/>
@@ -1095,6 +1360,125 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i/>
@@ -1110,6 +1494,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="7" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
@@ -1131,6 +1529,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="7" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
@@ -1167,347 +1572,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1532,7 +1596,7 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1549,9 +1613,159 @@
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="0"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="0"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1574,11 +1788,11 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color auto="1"/>
         </left>
@@ -1591,8 +1805,6 @@
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1616,11 +1828,11 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color auto="1"/>
         </left>
@@ -1633,8 +1845,46 @@
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1662,7 +1912,7 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color auto="1"/>
         </left>
@@ -1675,271 +1925,7 @@
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1962,11 +1948,11 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color auto="1"/>
         </left>
@@ -1979,8 +1965,6 @@
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -2004,11 +1988,11 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color auto="1"/>
         </left>
@@ -2021,50 +2005,6 @@
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -2092,7 +2032,7 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color auto="1"/>
         </left>
@@ -2105,8 +2045,6 @@
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -2315,13 +2253,6 @@
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -2345,6 +2276,136 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2370,727 +2431,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -4723,10 +4063,10 @@
                   <c:v>KNN</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>LINEAR REGRESSION</c:v>
+                  <c:v>SVM</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>SVM</c:v>
+                  <c:v>RF</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>MLP</c:v>
@@ -4741,16 +4081,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.47859099999999999</c:v>
+                  <c:v>0.90921200000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.78826099999999999</c:v>
+                  <c:v>0.87549399999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.45924300000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.62327900000000003</c:v>
+                  <c:v>0.94114500000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4969,7 +4306,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>BEACON COHESION</a:t>
+              <a:t>DIFFERENT ENVIRONMENT / BLE</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -5115,10 +4452,10 @@
                   <c:v>KNN</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>LINEAR REGRESSION</c:v>
+                  <c:v>SVM</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>SVM</c:v>
+                  <c:v>RF</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>MLP</c:v>
@@ -5133,16 +4470,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.79234899999999997</c:v>
+                  <c:v>-4.1769170000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.80422199999999999</c:v>
+                  <c:v>-0.987927</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.082622</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.79009499999999999</c:v>
+                  <c:v>-4.3778280000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5722,794 +5056,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>DIFFERENT ENVIRONMENT / SMALL DATASET</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:marker>
-              <c:symbol val="diamond"/>
-              <c:size val="5"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-5E48-4A43-AC5B-4B5A52D59062}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Folha1!$M$60:$M$63</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>KNN</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>LINEAR REGRESSION</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>SVM</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MLP</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Folha1!$N$60:$N$63</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.60993900000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.65405100000000005</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.89328799999999997</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.71468100000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5E48-4A43-AC5B-4B5A52D59062}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="t"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="313508328"/>
-        <c:axId val="313508984"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="313508328"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="313508984"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="313508984"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="313508328"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>DIFFERENT ENVIRONMENT / DIFFERENT</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> DEVICE</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:marker>
-              <c:symbol val="diamond"/>
-              <c:size val="5"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-CDFF-4FAA-857F-1DE6125BB9DE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Folha1!$M$70:$M$73</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>KNN</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>LINEAR REGRESSION</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>SVM</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MLP</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Folha1!$N$70:$N$73</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.661165</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.72877999999999998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.96026500000000004</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.73541400000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CDFF-4FAA-857F-1DE6125BB9DE}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="t"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="437990264"/>
-        <c:axId val="437990592"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="437990264"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="437990592"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="437990592"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="437990264"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -6670,86 +5216,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -8286,1038 +6752,6 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9873,16 +7307,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>12998</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>188035</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>846844</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>11142</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>466838</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>20507</xdr:rowOff>
+      <xdr:colOff>332672</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>16698</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9909,16 +7343,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>259079</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>79057</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>818877</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>63545</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
+      <xdr:colOff>299357</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
+      <xdr:rowOff>176893</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9945,16 +7379,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>200024</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>16191</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>691786</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>20001</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>550544</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>200568</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>2176</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9979,185 +7413,79 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>211455</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>117157</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Gráfico 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3012759-7608-4658-836C-99BC482027D6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>135255</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>56197</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Gráfico 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1F20E92-23BE-43D7-A837-06777B9ED3F0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{80D23CFC-08CC-411A-A4F1-FD79922D10A3}" name="Tabela1" displayName="Tabela1" ref="C7:L12" totalsRowShown="0" headerRowDxfId="168" dataDxfId="167" tableBorderDxfId="166">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{80D23CFC-08CC-411A-A4F1-FD79922D10A3}" name="Tabela1" displayName="Tabela1" ref="C7:L12" totalsRowShown="0" headerRowDxfId="201" dataDxfId="200" tableBorderDxfId="199">
   <autoFilter ref="C7:L12" xr:uid="{DFBD5CF0-3B05-4F18-934A-4746EEAE7074}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{26DA34DF-8177-4442-A2D3-8EB9AD72DF1F}" name="DATASET USED" dataDxfId="165"/>
-    <tableColumn id="2" xr3:uid="{0F67067D-DC1E-40F7-B158-8349CDC4D2BD}" name="NUMBER OF SAMPLES" dataDxfId="164"/>
-    <tableColumn id="3" xr3:uid="{39DF035D-1EAA-4B9F-87E6-B5266981D298}" name="TRAINING SET PERFORMANCE" dataDxfId="163"/>
-    <tableColumn id="4" xr3:uid="{2D8408D4-33AD-4CD0-8FF1-B7C4D375DBB8}" name="TEST SET USED" dataDxfId="162"/>
-    <tableColumn id="5" xr3:uid="{E30FD73D-642C-4C28-A7D5-C3657D007A79}" name="DEVICE" dataDxfId="161"/>
-    <tableColumn id="6" xr3:uid="{9AEC8ABB-593B-4AC8-92B3-C100A2126814}" name="ALGORITHM" dataDxfId="160"/>
-    <tableColumn id="7" xr3:uid="{5B7F94A2-EF15-4A03-8E8B-8FEFE4A1E148}" name="MAE" dataDxfId="159"/>
-    <tableColumn id="8" xr3:uid="{89A9952A-3310-4FAA-993F-3D39EF2C91BA}" name="RMSE" dataDxfId="158"/>
-    <tableColumn id="9" xr3:uid="{6E36E7A8-564E-4DAA-956A-4D29821E808E}" name="ACCURACY" dataDxfId="157"/>
-    <tableColumn id="10" xr3:uid="{123E2326-DCC7-449A-9982-4EEB64A1F1B6}" name="F1-SCORE" dataDxfId="156"/>
+    <tableColumn id="1" xr3:uid="{26DA34DF-8177-4442-A2D3-8EB9AD72DF1F}" name="DATASET USED" dataDxfId="198"/>
+    <tableColumn id="2" xr3:uid="{0F67067D-DC1E-40F7-B158-8349CDC4D2BD}" name="NUMBER OF SAMPLES" dataDxfId="197"/>
+    <tableColumn id="3" xr3:uid="{39DF035D-1EAA-4B9F-87E6-B5266981D298}" name="TRAINING SET PERFORMANCE" dataDxfId="196"/>
+    <tableColumn id="4" xr3:uid="{2D8408D4-33AD-4CD0-8FF1-B7C4D375DBB8}" name="TEST SET USED" dataDxfId="195"/>
+    <tableColumn id="5" xr3:uid="{E30FD73D-642C-4C28-A7D5-C3657D007A79}" name="DEVICE" dataDxfId="194"/>
+    <tableColumn id="6" xr3:uid="{9AEC8ABB-593B-4AC8-92B3-C100A2126814}" name="ALGORITHM" dataDxfId="193"/>
+    <tableColumn id="7" xr3:uid="{5B7F94A2-EF15-4A03-8E8B-8FEFE4A1E148}" name="MAE" dataDxfId="192"/>
+    <tableColumn id="8" xr3:uid="{89A9952A-3310-4FAA-993F-3D39EF2C91BA}" name="RMSE" dataDxfId="191"/>
+    <tableColumn id="9" xr3:uid="{6E36E7A8-564E-4DAA-956A-4D29821E808E}" name="ACCURACY" dataDxfId="190"/>
+    <tableColumn id="10" xr3:uid="{123E2326-DCC7-449A-9982-4EEB64A1F1B6}" name="F1-SCORE" dataDxfId="189"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F47BA2B2-6A5F-4C0F-B740-6FD24D85CCBD}" name="Tabela17" displayName="Tabela17" ref="C31:K35" totalsRowShown="0" headerRowDxfId="155" dataDxfId="154" tableBorderDxfId="153">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F47BA2B2-6A5F-4C0F-B740-6FD24D85CCBD}" name="Tabela17" displayName="Tabela17" ref="C31:K35" totalsRowShown="0" headerRowDxfId="188" dataDxfId="187" tableBorderDxfId="186">
   <autoFilter ref="C31:K35" xr:uid="{8FD148E6-BB74-4903-B200-56E20FAD3F7B}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{9B699A52-34DA-48FF-8201-40A33F8DEAA9}" name="DATASET USED" dataDxfId="152"/>
-    <tableColumn id="2" xr3:uid="{38C440C5-53FA-4FC3-86C1-BBC05382945B}" name="NUMBER OF SAMPLES" dataDxfId="151"/>
-    <tableColumn id="3" xr3:uid="{2A8E7AF8-104A-44BA-AC33-41B0C6D7F8EA}" name="TRAINING SET PERFORMANCE" dataDxfId="150"/>
-    <tableColumn id="4" xr3:uid="{2C1E7EB2-341E-4D63-B851-C70DFB8523DA}" name="TEST SET USED" dataDxfId="149"/>
-    <tableColumn id="5" xr3:uid="{41AC5D33-CAF7-4135-9579-DF1EDCF9C451}" name="DEVICE" dataDxfId="148"/>
-    <tableColumn id="6" xr3:uid="{43912D0B-D8CB-49C5-89CC-FE061E8F9176}" name="ALGORITHM" dataDxfId="147"/>
-    <tableColumn id="7" xr3:uid="{1E26028C-066C-4B1A-ADB9-91AD8E90A49D}" name="MAE" dataDxfId="146"/>
-    <tableColumn id="8" xr3:uid="{2CDC372A-0CCD-48AE-8C10-2A958573A256}" name="RMSE" dataDxfId="145"/>
-    <tableColumn id="9" xr3:uid="{1FDE3A5E-AEA9-4BA4-AE30-89B596397128}" name="R2" dataDxfId="144"/>
+    <tableColumn id="1" xr3:uid="{9B699A52-34DA-48FF-8201-40A33F8DEAA9}" name="DATASET USED" dataDxfId="185"/>
+    <tableColumn id="2" xr3:uid="{38C440C5-53FA-4FC3-86C1-BBC05382945B}" name="NUMBER OF SAMPLES" dataDxfId="184"/>
+    <tableColumn id="3" xr3:uid="{2A8E7AF8-104A-44BA-AC33-41B0C6D7F8EA}" name="TRAINING SET PERFORMANCE" dataDxfId="183"/>
+    <tableColumn id="4" xr3:uid="{2C1E7EB2-341E-4D63-B851-C70DFB8523DA}" name="TEST SET USED" dataDxfId="182"/>
+    <tableColumn id="5" xr3:uid="{41AC5D33-CAF7-4135-9579-DF1EDCF9C451}" name="DEVICE" dataDxfId="181"/>
+    <tableColumn id="6" xr3:uid="{43912D0B-D8CB-49C5-89CC-FE061E8F9176}" name="ALGORITHM" dataDxfId="180"/>
+    <tableColumn id="7" xr3:uid="{1E26028C-066C-4B1A-ADB9-91AD8E90A49D}" name="MAE" dataDxfId="179"/>
+    <tableColumn id="8" xr3:uid="{2CDC372A-0CCD-48AE-8C10-2A958573A256}" name="RMSE" dataDxfId="178"/>
+    <tableColumn id="9" xr3:uid="{1FDE3A5E-AEA9-4BA4-AE30-89B596397128}" name="R2" dataDxfId="177"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{A6F50936-2737-43F6-B505-1A1CB374A1D6}" name="Tabela28" displayName="Tabela28" ref="C43:K47" totalsRowShown="0" headerRowDxfId="143" dataDxfId="142" tableBorderDxfId="141">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{A6F50936-2737-43F6-B505-1A1CB374A1D6}" name="Tabela28" displayName="Tabela28" ref="C43:K47" totalsRowShown="0" headerRowDxfId="176" dataDxfId="175" tableBorderDxfId="174">
   <autoFilter ref="C43:K47" xr:uid="{47CECD53-9900-4EA8-BF2F-5D0E26457539}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{47C7938A-457D-47B2-8E97-A18A74BD5FD2}" name="DATASET USED" dataDxfId="140"/>
-    <tableColumn id="2" xr3:uid="{7CA88261-8444-430C-A8E8-46E5CBDAC96F}" name="NUMBER OF SAMPLES" dataDxfId="139"/>
-    <tableColumn id="3" xr3:uid="{675E8FF8-7883-47DF-B629-5851FC05AFB6}" name="TRAINING SET PERFORMANCE" dataDxfId="138"/>
-    <tableColumn id="4" xr3:uid="{B53A96C4-1D12-4ABC-8DD4-0C92E4ACA4D8}" name="TEST SET USED" dataDxfId="137"/>
-    <tableColumn id="5" xr3:uid="{EC0DA554-107E-442D-A100-80FBBA24ED8D}" name="DEVICE" dataDxfId="136"/>
-    <tableColumn id="6" xr3:uid="{B2533DD9-5E06-4FF5-86BF-E8D7771D354D}" name="ALGORITHM" dataDxfId="135"/>
-    <tableColumn id="7" xr3:uid="{E020E96A-4865-4567-9BAC-8C1AE263B1CF}" name="MAE" dataDxfId="134"/>
-    <tableColumn id="8" xr3:uid="{16341F1A-F688-4436-9319-BA524F079D33}" name="RMSE" dataDxfId="133"/>
-    <tableColumn id="9" xr3:uid="{088318A1-1E7C-4E56-A3F0-0A062096151E}" name="R2" dataDxfId="132"/>
+    <tableColumn id="1" xr3:uid="{47C7938A-457D-47B2-8E97-A18A74BD5FD2}" name="DATASET USED" dataDxfId="167"/>
+    <tableColumn id="2" xr3:uid="{7CA88261-8444-430C-A8E8-46E5CBDAC96F}" name="NUMBER OF SAMPLES" dataDxfId="166"/>
+    <tableColumn id="3" xr3:uid="{675E8FF8-7883-47DF-B629-5851FC05AFB6}" name="TRAINING SET PERFORMANCE" dataDxfId="165"/>
+    <tableColumn id="4" xr3:uid="{B53A96C4-1D12-4ABC-8DD4-0C92E4ACA4D8}" name="TEST SET USED" dataDxfId="173"/>
+    <tableColumn id="5" xr3:uid="{EC0DA554-107E-442D-A100-80FBBA24ED8D}" name="DEVICE" dataDxfId="172"/>
+    <tableColumn id="6" xr3:uid="{B2533DD9-5E06-4FF5-86BF-E8D7771D354D}" name="ALGORITHM" dataDxfId="160"/>
+    <tableColumn id="7" xr3:uid="{E020E96A-4865-4567-9BAC-8C1AE263B1CF}" name="MAE" dataDxfId="159"/>
+    <tableColumn id="8" xr3:uid="{16341F1A-F688-4436-9319-BA524F079D33}" name="RMSE" dataDxfId="158"/>
+    <tableColumn id="9" xr3:uid="{088318A1-1E7C-4E56-A3F0-0A062096151E}" name="R2" dataDxfId="133">
+      <calculatedColumnFormula array="1">-_FV( 2,"540453")</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{61FFE7F8-BDFB-44D4-9347-98B8061387D4}" name="Tabela249" displayName="Tabela249" ref="C50:K54" totalsRowShown="0" headerRowDxfId="131" dataDxfId="130" tableBorderDxfId="129">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{61FFE7F8-BDFB-44D4-9347-98B8061387D4}" name="Tabela249" displayName="Tabela249" ref="C50:K54" totalsRowShown="0" headerRowDxfId="171" dataDxfId="170" tableBorderDxfId="169">
   <autoFilter ref="C50:K54" xr:uid="{0CC6D720-2EB7-4AD3-BF62-D45B83368F42}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{82DBB22A-0376-4496-8DD5-75459BAEEE30}" name="DATASET USED" dataDxfId="128"/>
-    <tableColumn id="2" xr3:uid="{41CBB1F7-215A-45A2-BA8F-32A79E3D8F61}" name="NUMBER OF SAMPLES" dataDxfId="127"/>
-    <tableColumn id="3" xr3:uid="{B587A23D-4A2D-489A-ACE6-403ED250C36C}" name="TRAINING SET PERFORMANCE" dataDxfId="126"/>
-    <tableColumn id="4" xr3:uid="{02310B5B-B568-4332-B3E5-FC21C0EAECD5}" name="TEST SET USED" dataDxfId="125"/>
-    <tableColumn id="5" xr3:uid="{1CA3382E-E907-44E3-A2E7-AA671425D9F1}" name="DEVICE" dataDxfId="124"/>
-    <tableColumn id="6" xr3:uid="{E76F86B9-986A-403D-B689-C1530CFC39FE}" name="ALGORITHM" dataDxfId="123"/>
-    <tableColumn id="7" xr3:uid="{3E0011D5-6EDC-4206-8F77-F47EA6CA1457}" name="MAE" dataDxfId="122"/>
-    <tableColumn id="8" xr3:uid="{8AA9FC09-AF58-4633-9A7F-DF7A77818511}" name="RMSE" dataDxfId="121"/>
-    <tableColumn id="9" xr3:uid="{BC7F5CEB-BAFA-4F93-86F6-5F886BAEEC00}" name="R2" dataDxfId="120"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{D2925345-2F0A-4FB9-8FF2-787376DD1EA3}" name="Tabela24510" displayName="Tabela24510" ref="C59:K63" totalsRowShown="0" headerRowDxfId="119" dataDxfId="118" tableBorderDxfId="117">
-  <autoFilter ref="C59:K63" xr:uid="{BE89BDDA-9E1B-47EF-8E42-F65D9621C420}"/>
-  <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{747E266C-432B-49DB-89B5-9ECD85705F66}" name="DATASET USED" dataDxfId="116"/>
-    <tableColumn id="2" xr3:uid="{22464820-BCC8-4058-985C-48AEFF4D2FA9}" name="NUMBER OF SAMPLES" dataDxfId="115"/>
-    <tableColumn id="3" xr3:uid="{E0F01AD7-4B81-4E99-B5C7-53BCC2C35B03}" name="TRAINING SET PERFORMANCE" dataDxfId="114"/>
-    <tableColumn id="4" xr3:uid="{F83CA1CA-B55A-4063-9CB8-518C39BCFEE9}" name="TEST SET USED" dataDxfId="113"/>
-    <tableColumn id="5" xr3:uid="{6923CFF4-F6F8-4957-88B6-42D3CC4B143C}" name="DEVICE" dataDxfId="112"/>
-    <tableColumn id="6" xr3:uid="{37D87657-9BFF-4D2B-B4D5-6727000BFEF8}" name="ALGORITHM" dataDxfId="111"/>
-    <tableColumn id="7" xr3:uid="{518BD16C-AF80-49CF-A38E-22F69AC7F5EE}" name="MAE" dataDxfId="110"/>
-    <tableColumn id="8" xr3:uid="{7648E94E-16E2-4769-9122-BFD400C67B1F}" name="RMSE" dataDxfId="109"/>
-    <tableColumn id="9" xr3:uid="{FAB0A796-8E33-453B-84F7-19513C5427BD}" name="R2" dataDxfId="108"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{A89C45DA-A674-4D26-8DCF-08FB0A2CC57D}" name="Tabela245611" displayName="Tabela245611" ref="C69:K73" totalsRowShown="0" headerRowDxfId="107" dataDxfId="106" tableBorderDxfId="105">
-  <autoFilter ref="C69:K73" xr:uid="{8B0DE9D4-B84C-470D-83A1-9837E8C70B8D}"/>
-  <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{22B346F1-7D37-452B-982C-C8F16F413A8C}" name="DATASET USED" dataDxfId="104"/>
-    <tableColumn id="2" xr3:uid="{C3937A1C-238A-4847-A8C7-A7E837AA84BE}" name="NUMBER OF SAMPLES" dataDxfId="103"/>
-    <tableColumn id="3" xr3:uid="{A657D638-EAD1-4AF5-A770-D86EBB57B268}" name="TRAINING SET PERFORMANCE" dataDxfId="102"/>
-    <tableColumn id="4" xr3:uid="{1DB79502-E5F6-4895-BA04-09CA41481549}" name="TEST SET USED" dataDxfId="101"/>
-    <tableColumn id="5" xr3:uid="{32AA2D3B-E9A1-4A23-9A2A-E47CFEB360AB}" name="DEVICE" dataDxfId="100"/>
-    <tableColumn id="6" xr3:uid="{39A61720-87AA-4EB9-837A-131A23AD791D}" name="ALGORITHM" dataDxfId="99"/>
-    <tableColumn id="7" xr3:uid="{4230CD9A-EA21-49F1-BF05-8476986F99B1}" name="MAE" dataDxfId="98"/>
-    <tableColumn id="8" xr3:uid="{46981A43-D527-4F77-985E-E49C5E9DC1BA}" name="RMSE" dataDxfId="97"/>
-    <tableColumn id="9" xr3:uid="{F7FBA2D2-EE05-454F-AD27-88F7BF89E4A5}" name="R2" dataDxfId="96"/>
+    <tableColumn id="1" xr3:uid="{82DBB22A-0376-4496-8DD5-75459BAEEE30}" name="DATASET USED" dataDxfId="163"/>
+    <tableColumn id="2" xr3:uid="{41CBB1F7-215A-45A2-BA8F-32A79E3D8F61}" name="NUMBER OF SAMPLES" dataDxfId="162"/>
+    <tableColumn id="3" xr3:uid="{B587A23D-4A2D-489A-ACE6-403ED250C36C}" name="TRAINING SET PERFORMANCE" dataDxfId="161"/>
+    <tableColumn id="4" xr3:uid="{02310B5B-B568-4332-B3E5-FC21C0EAECD5}" name="TEST SET USED" dataDxfId="164"/>
+    <tableColumn id="5" xr3:uid="{1CA3382E-E907-44E3-A2E7-AA671425D9F1}" name="DEVICE" dataDxfId="168"/>
+    <tableColumn id="6" xr3:uid="{E76F86B9-986A-403D-B689-C1530CFC39FE}" name="ALGORITHM" dataDxfId="157"/>
+    <tableColumn id="7" xr3:uid="{3E0011D5-6EDC-4206-8F77-F47EA6CA1457}" name="MAE" dataDxfId="156"/>
+    <tableColumn id="8" xr3:uid="{8AA9FC09-AF58-4633-9A7F-DF7A77818511}" name="RMSE" dataDxfId="155"/>
+    <tableColumn id="9" xr3:uid="{BC7F5CEB-BAFA-4F93-86F6-5F886BAEEC00}" name="R2" dataDxfId="154"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10460,10 +7788,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9805F76B-573A-4178-B9E3-1E65A92A3888}">
-  <dimension ref="B2:P84"/>
+  <dimension ref="B2:P67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I61" sqref="I61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10479,66 +7807,66 @@
     <col min="10" max="10" width="15.77734375" customWidth="1"/>
     <col min="11" max="11" width="13.33203125" customWidth="1"/>
     <col min="12" max="12" width="17.109375" customWidth="1"/>
-    <col min="13" max="13" width="10" customWidth="1"/>
-    <col min="14" max="14" width="9.109375" customWidth="1"/>
+    <col min="13" max="13" width="16.77734375" customWidth="1"/>
+    <col min="14" max="14" width="13.109375" customWidth="1"/>
     <col min="15" max="15" width="20.77734375" customWidth="1"/>
     <col min="16" max="16" width="14" customWidth="1"/>
     <col min="28" max="28" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
+      <c r="B2" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
     </row>
     <row r="6" spans="2:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="F6" s="8" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
@@ -10564,7 +7892,7 @@
         <v>3</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>4</v>
@@ -10581,16 +7909,16 @@
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C8" s="6" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
       <c r="D8" s="6">
         <v>750</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>107</v>
+        <v>30</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>12</v>
@@ -10599,18 +7927,18 @@
         <v>11</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>115</v>
+        <v>38</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>114</v>
+        <v>37</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="L8" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="O8" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="O8" s="26" t="s">
         <v>11</v>
       </c>
       <c r="P8" s="7">
@@ -10619,37 +7947,37 @@
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C9" s="6" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
       <c r="D9" s="6">
         <v>750</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>12</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>105</v>
+        <v>28</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>119</v>
+        <v>42</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>118</v>
+        <v>41</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>117</v>
+        <v>40</v>
       </c>
       <c r="L9" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="O9" s="28" t="s">
-        <v>105</v>
+        <v>39</v>
+      </c>
+      <c r="O9" s="26" t="s">
+        <v>28</v>
       </c>
       <c r="P9" s="7">
         <v>0.96149399999999996</v>
@@ -10657,16 +7985,16 @@
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C10" s="6" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
       <c r="D10" s="6">
         <v>750</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>109</v>
+        <v>32</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>12</v>
@@ -10675,74 +8003,74 @@
         <v>14</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>123</v>
+        <v>46</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>122</v>
+        <v>45</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L10" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="O10" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="L10" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="O10" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="P10" s="26">
+      <c r="P10" s="24">
         <v>0.91322400000000004</v>
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C11" s="9" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
       <c r="D11" s="9">
         <v>750</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>110</v>
+        <v>33</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G11" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="23" t="s">
-        <v>106</v>
+      <c r="H11" s="22" t="s">
+        <v>29</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>127</v>
+        <v>50</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>126</v>
+        <v>49</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>125</v>
+        <v>48</v>
       </c>
       <c r="L11" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="O11" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="P11" s="27">
+        <v>47</v>
+      </c>
+      <c r="O11" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="P11" s="25">
         <v>0.98184800000000005</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C12" s="9" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
       <c r="D12" s="9">
         <v>750</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>111</v>
+        <v>34</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G12" s="9" t="s">
         <v>12</v>
@@ -10751,18 +8079,18 @@
         <v>15</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>131</v>
+        <v>54</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>130</v>
+        <v>53</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>129</v>
+        <v>52</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="O12" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="O12" s="26" t="s">
         <v>15</v>
       </c>
       <c r="P12" s="7">
@@ -10796,78 +8124,78 @@
       </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="E19" s="22" t="s">
-        <v>32</v>
+      <c r="E19" s="21" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.3">
       <c r="E20" t="s">
-        <v>132</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.3">
       <c r="E21" t="s">
-        <v>133</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="E23" s="22" t="s">
-        <v>134</v>
+      <c r="E23" s="21" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="26" spans="2:15" ht="31.8" x14ac:dyDescent="0.5">
-      <c r="B26" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="24"/>
-      <c r="O26" s="24"/>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B26" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="28"/>
     </row>
-    <row r="27" spans="2:15" ht="31.8" x14ac:dyDescent="0.5">
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="24"/>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="28"/>
+      <c r="M27" s="28"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="28"/>
     </row>
-    <row r="28" spans="2:15" ht="31.8" x14ac:dyDescent="0.5">
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
-      <c r="M28" s="24"/>
-      <c r="N28" s="24"/>
-      <c r="O28" s="24"/>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="28"/>
+      <c r="O28" s="28"/>
     </row>
     <row r="30" spans="2:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="F30" s="8" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.3">
@@ -10893,30 +8221,30 @@
         <v>3</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="M31" s="14" t="s">
         <v>2</v>
       </c>
       <c r="N31" s="13" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C32" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="6">
+        <v>750</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F32" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="D32" s="6">
-        <v>24834</v>
-      </c>
-      <c r="E32" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>21</v>
       </c>
       <c r="G32" s="6" t="s">
         <v>12</v>
@@ -10925,103 +8253,103 @@
         <v>11</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="M32" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="M32" s="26" t="s">
         <v>11</v>
       </c>
       <c r="N32" s="7">
-        <v>0.47859099999999999</v>
+        <v>0.90921200000000002</v>
       </c>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C33" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" s="6">
+        <v>750</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="D33" s="6">
-        <v>24834</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>21</v>
       </c>
       <c r="G33" s="6" t="s">
         <v>12</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="M33" s="11" t="s">
-        <v>36</v>
+        <v>66</v>
+      </c>
+      <c r="M33" s="26" t="s">
+        <v>14</v>
       </c>
       <c r="N33" s="7">
-        <v>0.78826099999999999</v>
+        <v>0.87549399999999999</v>
       </c>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C34" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="6">
+        <v>750</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F34" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="D34" s="6">
-        <v>24834</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>21</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>12</v>
       </c>
       <c r="H34" s="18" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="I34" s="17" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="M34" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="N34" s="17">
-        <v>0.45924300000000001</v>
+        <v>69</v>
+      </c>
+      <c r="M34" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="N34" s="7">
+        <v>0.94114500000000001</v>
       </c>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" s="6">
+        <v>750</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F35" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="D35" s="9">
-        <v>24834</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>21</v>
       </c>
       <c r="G35" s="9" t="s">
         <v>12</v>
@@ -11029,21 +8357,13 @@
       <c r="H35" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="I35" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="J35" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="K35" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="M35" s="11" t="s">
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="M35" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="N35" s="7">
-        <v>0.62327900000000003</v>
-      </c>
+      <c r="N35" s="7"/>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C36" s="1"/>
@@ -11081,7 +8401,7 @@
     </row>
     <row r="42" spans="2:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="F42" s="8" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.3">
@@ -11107,30 +8427,30 @@
         <v>3</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="M43" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="N43" s="14" t="s">
-        <v>3</v>
+      <c r="N43" s="13" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C44" s="6" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D44" s="6">
-        <v>24834</v>
-      </c>
-      <c r="E44" s="19" t="s">
-        <v>40</v>
+        <v>750</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="G44" s="6" t="s">
         <v>12</v>
@@ -11138,134 +8458,126 @@
       <c r="H44" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I44" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="J44" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="M44" s="11" t="s">
+      <c r="I44" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="J44" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="K44" s="29">
+        <v>-4.1769170000000004</v>
+      </c>
+      <c r="M44" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="N44" s="7">
-        <v>0.79234899999999997</v>
+      <c r="N44" s="29">
+        <v>-4.1769170000000004</v>
       </c>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C45" s="6" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D45" s="6">
-        <v>24834</v>
+        <v>750</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="G45" s="6" t="s">
         <v>12</v>
       </c>
       <c r="H45" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="I45" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="J45" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="M45" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="N45" s="7">
-        <v>0.80422199999999999</v>
+        <v>14</v>
+      </c>
+      <c r="I45" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="J45" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="K45" s="29">
+        <v>-0.987927</v>
+      </c>
+      <c r="M45" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="N45" s="29">
+        <v>-0.987927</v>
       </c>
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C46" s="6" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D46" s="6">
-        <v>24834</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>37</v>
+        <v>750</v>
+      </c>
+      <c r="E46" s="19" t="s">
+        <v>61</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="G46" s="6" t="s">
         <v>12</v>
       </c>
       <c r="H46" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I46" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="J46" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="K46" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="M46" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="N46" s="7">
-        <v>1.082622</v>
+        <v>29</v>
+      </c>
+      <c r="I46" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="J46" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="K46" s="29">
+        <v>-4.3778280000000001</v>
+      </c>
+      <c r="M46" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="N46" s="29">
+        <v>-4.3778280000000001</v>
       </c>
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
-      <c r="C47" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D47" s="9">
-        <v>24834</v>
+      <c r="C47" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D47" s="6">
+        <v>750</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F47" s="9" t="s">
-        <v>24</v>
+        <v>62</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="G47" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H47" s="23" t="s">
+      <c r="H47" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="I47" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="J47" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="K47" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="M47" s="18" t="s">
+      <c r="I47" s="30"/>
+      <c r="J47" s="30"/>
+      <c r="K47" s="30"/>
+      <c r="M47" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="N47" s="17">
-        <v>0.79009499999999999</v>
-      </c>
+      <c r="N47" s="29"/>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
     </row>
     <row r="49" spans="3:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="F49" s="8" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
     </row>
     <row r="50" spans="3:14" x14ac:dyDescent="0.3">
@@ -11291,10 +8603,10 @@
         <v>3</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="M50" s="14" t="s">
         <v>2</v>
@@ -11305,31 +8617,31 @@
     </row>
     <row r="51" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C51" s="6" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D51" s="6">
-        <v>24834</v>
+        <v>750</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="G51" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H51" s="18" t="s">
+      <c r="H51" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I51" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="J51" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="K51" s="7" t="s">
-        <v>68</v>
+      <c r="I51" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="J51" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="K51" s="29">
+        <v>-2.5404529999999999</v>
       </c>
       <c r="M51" s="18" t="s">
         <v>11</v>
@@ -11340,34 +8652,34 @@
     </row>
     <row r="52" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C52" s="6" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D52" s="6">
-        <v>24834</v>
-      </c>
-      <c r="E52" s="19" t="s">
-        <v>19</v>
+        <v>750</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="G52" s="6" t="s">
         <v>12</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="I52" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="J52" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="K52" s="7" t="s">
-        <v>71</v>
+        <v>14</v>
+      </c>
+      <c r="I52" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="J52" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="K52" s="29">
+        <v>-0.987927</v>
       </c>
       <c r="M52" s="11" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="N52" s="7">
         <v>0.54992600000000003</v>
@@ -11375,31 +8687,31 @@
     </row>
     <row r="53" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C53" s="6" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D53" s="6">
-        <v>24834</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>20</v>
+        <v>750</v>
+      </c>
+      <c r="E53" s="19" t="s">
+        <v>61</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="G53" s="6" t="s">
         <v>12</v>
       </c>
       <c r="H53" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I53" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="J53" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="K53" s="7" t="s">
-        <v>77</v>
+        <v>29</v>
+      </c>
+      <c r="I53" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="J53" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="K53" s="29">
+        <v>-2.577391</v>
       </c>
       <c r="M53" s="11" t="s">
         <v>14</v>
@@ -11409,17 +8721,17 @@
       </c>
     </row>
     <row r="54" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C54" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D54" s="9">
-        <v>24834</v>
+      <c r="C54" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D54" s="6">
+        <v>750</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="G54" s="9" t="s">
         <v>12</v>
@@ -11427,15 +8739,9 @@
       <c r="H54" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="I54" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="J54" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="K54" s="10" t="s">
-        <v>74</v>
-      </c>
+      <c r="I54" s="30"/>
+      <c r="J54" s="30"/>
+      <c r="K54" s="30"/>
       <c r="M54" s="11" t="s">
         <v>15</v>
       </c>
@@ -11443,389 +8749,29 @@
         <v>0.57833100000000004</v>
       </c>
     </row>
-    <row r="58" spans="3:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="F58" s="8" t="s">
-        <v>28</v>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="E63" s="21" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C59" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I59" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J59" s="2" t="s">
+    <row r="64" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="E64" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E65" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="66" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E66" t="s">
         <v>22</v>
       </c>
-      <c r="K59" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="M59" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="N59" s="14" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C60" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D60" s="6">
-        <v>24834</v>
-      </c>
-      <c r="E60" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F60" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G60" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H60" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="I60" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="J60" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="K60" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="M60" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="N60" s="17">
-        <v>0.60993900000000001</v>
-      </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C61" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D61" s="6">
-        <v>24834</v>
-      </c>
-      <c r="E61" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F61" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G61" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H61" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="I61" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="J61" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="K61" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="M61" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="N61" s="7">
-        <v>0.65405100000000005</v>
-      </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C62" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D62" s="6">
-        <v>24834</v>
-      </c>
-      <c r="E62" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F62" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G62" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H62" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I62" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="J62" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="K62" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="M62" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="N62" s="7">
-        <v>0.89328799999999997</v>
-      </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C63" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D63" s="9">
-        <v>24834</v>
-      </c>
-      <c r="E63" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F63" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G63" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H63" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="I63" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="J63" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="K63" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="M63" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="N63" s="7">
-        <v>0.71468100000000001</v>
-      </c>
-    </row>
-    <row r="68" spans="3:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="F68" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="69" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C69" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I69" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J69" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K69" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="M69" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="N69" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="70" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C70" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D70" s="6">
-        <v>24834</v>
-      </c>
-      <c r="E70" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F70" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G70" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H70" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="I70" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="J70" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="K70" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="M70" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="N70" s="17">
-        <v>0.661165</v>
-      </c>
-    </row>
-    <row r="71" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C71" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D71" s="6">
-        <v>24834</v>
-      </c>
-      <c r="E71" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F71" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G71" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H71" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="I71" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="J71" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="K71" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="M71" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="N71" s="7">
-        <v>0.72877999999999998</v>
-      </c>
-    </row>
-    <row r="72" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C72" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D72" s="6">
-        <v>24834</v>
-      </c>
-      <c r="E72" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F72" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G72" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H72" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I72" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="J72" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="K72" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="M72" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="N72" s="7">
-        <v>0.96026500000000004</v>
-      </c>
-    </row>
-    <row r="73" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C73" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D73" s="9">
-        <v>24834</v>
-      </c>
-      <c r="E73" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F73" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G73" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H73" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="I73" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="J73" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="K73" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="M73" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="N73" s="7">
-        <v>0.73541400000000001</v>
-      </c>
-    </row>
-    <row r="80" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="E80" s="22" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="81" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E81" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="82" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E82" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="83" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E83" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="84" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E84" s="22" t="s">
-        <v>102</v>
+    <row r="67" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E67" s="21" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -11837,92 +8783,86 @@
     <mergeCell ref="B26:O28"/>
   </mergeCells>
   <conditionalFormatting sqref="L8:L9 L11">
-    <cfRule type="expression" dxfId="43" priority="95">
+    <cfRule type="expression" dxfId="68" priority="112">
       <formula>L8=MAX($L8:$L12)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K32:K35">
-    <cfRule type="cellIs" dxfId="42" priority="25" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="67" priority="42" operator="greaterThan">
       <formula>"0.6"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="26" operator="between">
+    <cfRule type="cellIs" dxfId="66" priority="43" operator="between">
       <formula>"0.4999"</formula>
       <formula>"0.5999"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K44:K47">
-    <cfRule type="cellIs" dxfId="40" priority="20" operator="lessThan">
+  <conditionalFormatting sqref="K44:K46">
+    <cfRule type="cellIs" dxfId="65" priority="13" operator="greaterThan">
+      <formula>0.6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="14" operator="between">
+      <formula>0.5</formula>
+      <formula>0.599999</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="63" priority="15" operator="lessThan">
+      <formula>0.4999</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="37" operator="between">
+      <formula>"-10.0"</formula>
       <formula>"0.499"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="61" priority="38" operator="greaterThan">
       <formula>"0.6"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="22" operator="between">
+    <cfRule type="cellIs" dxfId="60" priority="39" operator="between">
       <formula>"0.4999"</formula>
       <formula>"0.5999"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K51:K54">
-    <cfRule type="cellIs" dxfId="37" priority="14" operator="lessThan">
+  <conditionalFormatting sqref="K51:K53">
+    <cfRule type="cellIs" dxfId="59" priority="31" operator="lessThan">
       <formula>"0.499"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="58" priority="32" operator="greaterThan">
       <formula>"0.6"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="16" operator="between">
-      <formula>"0.4999"</formula>
-      <formula>"0.5999"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K60:K63">
-    <cfRule type="cellIs" dxfId="34" priority="11" operator="lessThan">
-      <formula>"0.499"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="12" operator="greaterThan">
-      <formula>"0.6"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="13" operator="between">
-      <formula>"0.4999"</formula>
-      <formula>"0.5999"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K70:K73">
-    <cfRule type="cellIs" dxfId="31" priority="8" operator="lessThan">
-      <formula>"0.499"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="9" operator="greaterThan">
-      <formula>"0.6"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="57" priority="33" operator="between">
       <formula>"0.4999"</formula>
       <formula>"0.5999"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="expression" dxfId="28" priority="7">
+    <cfRule type="expression" dxfId="56" priority="24">
       <formula>L12=MAX($L12:$L16)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8:L12">
-    <cfRule type="cellIs" dxfId="27" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="55" priority="23" operator="greaterThan">
       <formula>"0.6"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11">
-    <cfRule type="cellIs" dxfId="26" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="54" priority="22" operator="greaterThan">
       <formula>"0.98"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N32:N35">
+    <cfRule type="cellIs" dxfId="53" priority="16" operator="greaterThan">
+      <formula>"0.6"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="17" operator="between">
+      <formula>"0.4999"</formula>
+      <formula>"0.5999"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <tableParts count="6">
+  <tableParts count="4">
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
     <tablePart r:id="rId6"/>
-    <tablePart r:id="rId7"/>
-    <tablePart r:id="rId8"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Server/Notebooks/FINGERPRINT/results_fingerprinting.xlsx
+++ b/Server/Notebooks/FINGERPRINT/results_fingerprinting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\College\5th Year College\TESE\Desenvolvimento\Code\Application\findLocationApp\findLocation\Server\Notebooks\FINGERPRINT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D90CFFDB-B5BB-4A17-86D9-87AFC7F2659A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94EFC588-9330-447A-86DE-BE9FFC7CB5BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{22682DBA-70EE-47D9-880F-69553294C7AC}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="90">
   <si>
     <t>DATASET USED</t>
   </si>
@@ -95,24 +95,9 @@
     <t>CONCLUSIONS</t>
   </si>
   <si>
-    <t>* Performance increases with the amount of training data</t>
-  </si>
-  <si>
-    <t>* Performance seems to be beacon independent</t>
-  </si>
-  <si>
-    <t>* Performance in a different device doesn't seem to change in a noticable way</t>
-  </si>
-  <si>
-    <t>LINEAR REGRESSION</t>
-  </si>
-  <si>
     <t>R2</t>
   </si>
   <si>
-    <t>KNN IS THE BEST ONE</t>
-  </si>
-  <si>
     <t>FINGERPRINTING CLASSIFICATION RESULTS</t>
   </si>
   <si>
@@ -291,6 +276,33 @@
   </si>
   <si>
     <t>2.210096</t>
+  </si>
+  <si>
+    <t>0.735767</t>
+  </si>
+  <si>
+    <t>1.028073</t>
+  </si>
+  <si>
+    <t>0.879875</t>
+  </si>
+  <si>
+    <t>1.345242</t>
+  </si>
+  <si>
+    <t>1.201112</t>
+  </si>
+  <si>
+    <t>1.406280</t>
+  </si>
+  <si>
+    <t>1.579692</t>
+  </si>
+  <si>
+    <t>* Performance depends on the environment (Radio map doesn't generalize to different environments)</t>
+  </si>
+  <si>
+    <t>Random Forest and KNN seem to work if the zone is radio mapped</t>
   </si>
 </sst>
 </file>
@@ -570,20 +582,20 @@
     <xf numFmtId="49" fontId="4" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="4" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="202">
+  <dxfs count="142">
     <dxf>
       <fill>
         <patternFill>
@@ -608,6 +620,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -623,6 +649,48 @@
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -698,41 +766,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="7" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
@@ -781,6 +814,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -796,6 +843,48 @@
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -871,41 +960,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="7" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
@@ -933,7 +987,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -961,14 +1022,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
+          <bgColor theme="4" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1106,7 +1160,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1134,14 +1195,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
+          <bgColor theme="4" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1217,83 +1271,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="7" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
@@ -1315,263 +1292,6 @@
       <fill>
         <patternFill patternType="solid">
           <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1600,7 +1320,7 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color auto="1"/>
         </left>
@@ -1614,158 +1334,6 @@
           <color auto="1"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1864,6 +1432,388 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <fill>
         <patternFill patternType="solid">
@@ -1944,15 +1894,14 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color auto="1"/>
         </left>
@@ -1965,6 +1914,8 @@
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1984,15 +1935,14 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color auto="1"/>
         </left>
@@ -2005,6 +1955,8 @@
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -2024,46 +1976,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -2087,350 +1999,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -4089,6 +3657,9 @@
                 <c:pt idx="2">
                   <c:v>0.94114500000000001</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.73576699999999995</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4478,6 +4049,9 @@
                 <c:pt idx="2">
                   <c:v>-4.3778280000000001</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.36699100000000001</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4699,7 +4273,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> / BIG DATASET</a:t>
+              <a:t> / BLE v2</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4845,10 +4419,10 @@
                   <c:v>KNN</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>LINEAR REGRESSION</c:v>
+                  <c:v>SVM</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>SVM</c:v>
+                  <c:v>RF</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>MLP</c:v>
@@ -4863,16 +4437,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.456959</c:v>
+                  <c:v>-2.5404529999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.54992600000000003</c:v>
+                  <c:v>-0.987927</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.73137399999999997</c:v>
+                  <c:v>-2.577391</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.57833100000000004</c:v>
+                  <c:v>-0.91889900000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7379,16 +6953,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>691786</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>20001</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1375951</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>101643</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>200568</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>97154</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>2176</xdr:rowOff>
+      <xdr:rowOff>139880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7417,55 +6991,55 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{80D23CFC-08CC-411A-A4F1-FD79922D10A3}" name="Tabela1" displayName="Tabela1" ref="C7:L12" totalsRowShown="0" headerRowDxfId="201" dataDxfId="200" tableBorderDxfId="199">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{80D23CFC-08CC-411A-A4F1-FD79922D10A3}" name="Tabela1" displayName="Tabela1" ref="C7:L12" totalsRowShown="0" headerRowDxfId="141" dataDxfId="140" tableBorderDxfId="139">
   <autoFilter ref="C7:L12" xr:uid="{DFBD5CF0-3B05-4F18-934A-4746EEAE7074}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{26DA34DF-8177-4442-A2D3-8EB9AD72DF1F}" name="DATASET USED" dataDxfId="198"/>
-    <tableColumn id="2" xr3:uid="{0F67067D-DC1E-40F7-B158-8349CDC4D2BD}" name="NUMBER OF SAMPLES" dataDxfId="197"/>
-    <tableColumn id="3" xr3:uid="{39DF035D-1EAA-4B9F-87E6-B5266981D298}" name="TRAINING SET PERFORMANCE" dataDxfId="196"/>
-    <tableColumn id="4" xr3:uid="{2D8408D4-33AD-4CD0-8FF1-B7C4D375DBB8}" name="TEST SET USED" dataDxfId="195"/>
-    <tableColumn id="5" xr3:uid="{E30FD73D-642C-4C28-A7D5-C3657D007A79}" name="DEVICE" dataDxfId="194"/>
-    <tableColumn id="6" xr3:uid="{9AEC8ABB-593B-4AC8-92B3-C100A2126814}" name="ALGORITHM" dataDxfId="193"/>
-    <tableColumn id="7" xr3:uid="{5B7F94A2-EF15-4A03-8E8B-8FEFE4A1E148}" name="MAE" dataDxfId="192"/>
-    <tableColumn id="8" xr3:uid="{89A9952A-3310-4FAA-993F-3D39EF2C91BA}" name="RMSE" dataDxfId="191"/>
-    <tableColumn id="9" xr3:uid="{6E36E7A8-564E-4DAA-956A-4D29821E808E}" name="ACCURACY" dataDxfId="190"/>
-    <tableColumn id="10" xr3:uid="{123E2326-DCC7-449A-9982-4EEB64A1F1B6}" name="F1-SCORE" dataDxfId="189"/>
+    <tableColumn id="1" xr3:uid="{26DA34DF-8177-4442-A2D3-8EB9AD72DF1F}" name="DATASET USED" dataDxfId="138"/>
+    <tableColumn id="2" xr3:uid="{0F67067D-DC1E-40F7-B158-8349CDC4D2BD}" name="NUMBER OF SAMPLES" dataDxfId="137"/>
+    <tableColumn id="3" xr3:uid="{39DF035D-1EAA-4B9F-87E6-B5266981D298}" name="TRAINING SET PERFORMANCE" dataDxfId="136"/>
+    <tableColumn id="4" xr3:uid="{2D8408D4-33AD-4CD0-8FF1-B7C4D375DBB8}" name="TEST SET USED" dataDxfId="135"/>
+    <tableColumn id="5" xr3:uid="{E30FD73D-642C-4C28-A7D5-C3657D007A79}" name="DEVICE" dataDxfId="134"/>
+    <tableColumn id="6" xr3:uid="{9AEC8ABB-593B-4AC8-92B3-C100A2126814}" name="ALGORITHM" dataDxfId="133"/>
+    <tableColumn id="7" xr3:uid="{5B7F94A2-EF15-4A03-8E8B-8FEFE4A1E148}" name="MAE" dataDxfId="132"/>
+    <tableColumn id="8" xr3:uid="{89A9952A-3310-4FAA-993F-3D39EF2C91BA}" name="RMSE" dataDxfId="131"/>
+    <tableColumn id="9" xr3:uid="{6E36E7A8-564E-4DAA-956A-4D29821E808E}" name="ACCURACY" dataDxfId="130"/>
+    <tableColumn id="10" xr3:uid="{123E2326-DCC7-449A-9982-4EEB64A1F1B6}" name="F1-SCORE" dataDxfId="129"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F47BA2B2-6A5F-4C0F-B740-6FD24D85CCBD}" name="Tabela17" displayName="Tabela17" ref="C31:K35" totalsRowShown="0" headerRowDxfId="188" dataDxfId="187" tableBorderDxfId="186">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F47BA2B2-6A5F-4C0F-B740-6FD24D85CCBD}" name="Tabela17" displayName="Tabela17" ref="C31:K35" totalsRowShown="0" headerRowDxfId="128" dataDxfId="127" tableBorderDxfId="126">
   <autoFilter ref="C31:K35" xr:uid="{8FD148E6-BB74-4903-B200-56E20FAD3F7B}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{9B699A52-34DA-48FF-8201-40A33F8DEAA9}" name="DATASET USED" dataDxfId="185"/>
-    <tableColumn id="2" xr3:uid="{38C440C5-53FA-4FC3-86C1-BBC05382945B}" name="NUMBER OF SAMPLES" dataDxfId="184"/>
-    <tableColumn id="3" xr3:uid="{2A8E7AF8-104A-44BA-AC33-41B0C6D7F8EA}" name="TRAINING SET PERFORMANCE" dataDxfId="183"/>
-    <tableColumn id="4" xr3:uid="{2C1E7EB2-341E-4D63-B851-C70DFB8523DA}" name="TEST SET USED" dataDxfId="182"/>
-    <tableColumn id="5" xr3:uid="{41AC5D33-CAF7-4135-9579-DF1EDCF9C451}" name="DEVICE" dataDxfId="181"/>
-    <tableColumn id="6" xr3:uid="{43912D0B-D8CB-49C5-89CC-FE061E8F9176}" name="ALGORITHM" dataDxfId="180"/>
-    <tableColumn id="7" xr3:uid="{1E26028C-066C-4B1A-ADB9-91AD8E90A49D}" name="MAE" dataDxfId="179"/>
-    <tableColumn id="8" xr3:uid="{2CDC372A-0CCD-48AE-8C10-2A958573A256}" name="RMSE" dataDxfId="178"/>
-    <tableColumn id="9" xr3:uid="{1FDE3A5E-AEA9-4BA4-AE30-89B596397128}" name="R2" dataDxfId="177"/>
+    <tableColumn id="1" xr3:uid="{9B699A52-34DA-48FF-8201-40A33F8DEAA9}" name="DATASET USED" dataDxfId="125"/>
+    <tableColumn id="2" xr3:uid="{38C440C5-53FA-4FC3-86C1-BBC05382945B}" name="NUMBER OF SAMPLES" dataDxfId="124"/>
+    <tableColumn id="3" xr3:uid="{2A8E7AF8-104A-44BA-AC33-41B0C6D7F8EA}" name="TRAINING SET PERFORMANCE" dataDxfId="123"/>
+    <tableColumn id="4" xr3:uid="{2C1E7EB2-341E-4D63-B851-C70DFB8523DA}" name="TEST SET USED" dataDxfId="122"/>
+    <tableColumn id="5" xr3:uid="{41AC5D33-CAF7-4135-9579-DF1EDCF9C451}" name="DEVICE" dataDxfId="121"/>
+    <tableColumn id="6" xr3:uid="{43912D0B-D8CB-49C5-89CC-FE061E8F9176}" name="ALGORITHM" dataDxfId="120"/>
+    <tableColumn id="7" xr3:uid="{1E26028C-066C-4B1A-ADB9-91AD8E90A49D}" name="MAE" dataDxfId="119"/>
+    <tableColumn id="8" xr3:uid="{2CDC372A-0CCD-48AE-8C10-2A958573A256}" name="RMSE" dataDxfId="118"/>
+    <tableColumn id="9" xr3:uid="{1FDE3A5E-AEA9-4BA4-AE30-89B596397128}" name="R2" dataDxfId="117"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{A6F50936-2737-43F6-B505-1A1CB374A1D6}" name="Tabela28" displayName="Tabela28" ref="C43:K47" totalsRowShown="0" headerRowDxfId="176" dataDxfId="175" tableBorderDxfId="174">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{A6F50936-2737-43F6-B505-1A1CB374A1D6}" name="Tabela28" displayName="Tabela28" ref="C43:K47" totalsRowShown="0" headerRowDxfId="116" dataDxfId="115" tableBorderDxfId="114">
   <autoFilter ref="C43:K47" xr:uid="{47CECD53-9900-4EA8-BF2F-5D0E26457539}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{47C7938A-457D-47B2-8E97-A18A74BD5FD2}" name="DATASET USED" dataDxfId="167"/>
-    <tableColumn id="2" xr3:uid="{7CA88261-8444-430C-A8E8-46E5CBDAC96F}" name="NUMBER OF SAMPLES" dataDxfId="166"/>
-    <tableColumn id="3" xr3:uid="{675E8FF8-7883-47DF-B629-5851FC05AFB6}" name="TRAINING SET PERFORMANCE" dataDxfId="165"/>
-    <tableColumn id="4" xr3:uid="{B53A96C4-1D12-4ABC-8DD4-0C92E4ACA4D8}" name="TEST SET USED" dataDxfId="173"/>
-    <tableColumn id="5" xr3:uid="{EC0DA554-107E-442D-A100-80FBBA24ED8D}" name="DEVICE" dataDxfId="172"/>
-    <tableColumn id="6" xr3:uid="{B2533DD9-5E06-4FF5-86BF-E8D7771D354D}" name="ALGORITHM" dataDxfId="160"/>
-    <tableColumn id="7" xr3:uid="{E020E96A-4865-4567-9BAC-8C1AE263B1CF}" name="MAE" dataDxfId="159"/>
-    <tableColumn id="8" xr3:uid="{16341F1A-F688-4436-9319-BA524F079D33}" name="RMSE" dataDxfId="158"/>
-    <tableColumn id="9" xr3:uid="{088318A1-1E7C-4E56-A3F0-0A062096151E}" name="R2" dataDxfId="133">
+    <tableColumn id="1" xr3:uid="{47C7938A-457D-47B2-8E97-A18A74BD5FD2}" name="DATASET USED" dataDxfId="113"/>
+    <tableColumn id="2" xr3:uid="{7CA88261-8444-430C-A8E8-46E5CBDAC96F}" name="NUMBER OF SAMPLES" dataDxfId="112"/>
+    <tableColumn id="3" xr3:uid="{675E8FF8-7883-47DF-B629-5851FC05AFB6}" name="TRAINING SET PERFORMANCE" dataDxfId="111"/>
+    <tableColumn id="4" xr3:uid="{B53A96C4-1D12-4ABC-8DD4-0C92E4ACA4D8}" name="TEST SET USED" dataDxfId="110"/>
+    <tableColumn id="5" xr3:uid="{EC0DA554-107E-442D-A100-80FBBA24ED8D}" name="DEVICE" dataDxfId="109"/>
+    <tableColumn id="6" xr3:uid="{B2533DD9-5E06-4FF5-86BF-E8D7771D354D}" name="ALGORITHM" dataDxfId="108"/>
+    <tableColumn id="7" xr3:uid="{E020E96A-4865-4567-9BAC-8C1AE263B1CF}" name="MAE" dataDxfId="107"/>
+    <tableColumn id="8" xr3:uid="{16341F1A-F688-4436-9319-BA524F079D33}" name="RMSE" dataDxfId="106"/>
+    <tableColumn id="9" xr3:uid="{088318A1-1E7C-4E56-A3F0-0A062096151E}" name="R2" dataDxfId="105">
       <calculatedColumnFormula array="1">-_FV( 2,"540453")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7474,18 +7048,18 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{61FFE7F8-BDFB-44D4-9347-98B8061387D4}" name="Tabela249" displayName="Tabela249" ref="C50:K54" totalsRowShown="0" headerRowDxfId="171" dataDxfId="170" tableBorderDxfId="169">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{61FFE7F8-BDFB-44D4-9347-98B8061387D4}" name="Tabela249" displayName="Tabela249" ref="C50:K54" totalsRowShown="0" headerRowDxfId="104" dataDxfId="103" tableBorderDxfId="102">
   <autoFilter ref="C50:K54" xr:uid="{0CC6D720-2EB7-4AD3-BF62-D45B83368F42}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{82DBB22A-0376-4496-8DD5-75459BAEEE30}" name="DATASET USED" dataDxfId="163"/>
-    <tableColumn id="2" xr3:uid="{41CBB1F7-215A-45A2-BA8F-32A79E3D8F61}" name="NUMBER OF SAMPLES" dataDxfId="162"/>
-    <tableColumn id="3" xr3:uid="{B587A23D-4A2D-489A-ACE6-403ED250C36C}" name="TRAINING SET PERFORMANCE" dataDxfId="161"/>
-    <tableColumn id="4" xr3:uid="{02310B5B-B568-4332-B3E5-FC21C0EAECD5}" name="TEST SET USED" dataDxfId="164"/>
-    <tableColumn id="5" xr3:uid="{1CA3382E-E907-44E3-A2E7-AA671425D9F1}" name="DEVICE" dataDxfId="168"/>
-    <tableColumn id="6" xr3:uid="{E76F86B9-986A-403D-B689-C1530CFC39FE}" name="ALGORITHM" dataDxfId="157"/>
-    <tableColumn id="7" xr3:uid="{3E0011D5-6EDC-4206-8F77-F47EA6CA1457}" name="MAE" dataDxfId="156"/>
-    <tableColumn id="8" xr3:uid="{8AA9FC09-AF58-4633-9A7F-DF7A77818511}" name="RMSE" dataDxfId="155"/>
-    <tableColumn id="9" xr3:uid="{BC7F5CEB-BAFA-4F93-86F6-5F886BAEEC00}" name="R2" dataDxfId="154"/>
+    <tableColumn id="1" xr3:uid="{82DBB22A-0376-4496-8DD5-75459BAEEE30}" name="DATASET USED" dataDxfId="101"/>
+    <tableColumn id="2" xr3:uid="{41CBB1F7-215A-45A2-BA8F-32A79E3D8F61}" name="NUMBER OF SAMPLES" dataDxfId="100"/>
+    <tableColumn id="3" xr3:uid="{B587A23D-4A2D-489A-ACE6-403ED250C36C}" name="TRAINING SET PERFORMANCE" dataDxfId="99"/>
+    <tableColumn id="4" xr3:uid="{02310B5B-B568-4332-B3E5-FC21C0EAECD5}" name="TEST SET USED" dataDxfId="98"/>
+    <tableColumn id="5" xr3:uid="{1CA3382E-E907-44E3-A2E7-AA671425D9F1}" name="DEVICE" dataDxfId="97"/>
+    <tableColumn id="6" xr3:uid="{E76F86B9-986A-403D-B689-C1530CFC39FE}" name="ALGORITHM" dataDxfId="96"/>
+    <tableColumn id="7" xr3:uid="{3E0011D5-6EDC-4206-8F77-F47EA6CA1457}" name="MAE" dataDxfId="95"/>
+    <tableColumn id="8" xr3:uid="{8AA9FC09-AF58-4633-9A7F-DF7A77818511}" name="RMSE" dataDxfId="94"/>
+    <tableColumn id="9" xr3:uid="{BC7F5CEB-BAFA-4F93-86F6-5F886BAEEC00}" name="R2" dataDxfId="93"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7790,8 +7364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9805F76B-573A-4178-B9E3-1E65A92A3888}">
   <dimension ref="B2:P67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I61" sqref="I61"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7815,54 +7389,54 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
+      <c r="B2" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
     </row>
     <row r="6" spans="2:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="F6" s="8" t="s">
@@ -7909,13 +7483,13 @@
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C8" s="6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D8" s="6">
         <v>750</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>16</v>
@@ -7927,16 +7501,16 @@
         <v>11</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="L8" s="15" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="O8" s="26" t="s">
         <v>11</v>
@@ -7947,13 +7521,13 @@
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C9" s="6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D9" s="6">
         <v>750</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>16</v>
@@ -7962,22 +7536,22 @@
         <v>12</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="L9" s="15" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="O9" s="26" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7">
         <v>0.96149399999999996</v>
@@ -7985,13 +7559,13 @@
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C10" s="6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D10" s="6">
         <v>750</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>16</v>
@@ -8003,16 +7577,16 @@
         <v>14</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="L10" s="23" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="O10" s="26" t="s">
         <v>14</v>
@@ -8023,13 +7597,13 @@
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C11" s="9" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D11" s="9">
         <v>750</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F11" s="9" t="s">
         <v>16</v>
@@ -8038,22 +7612,22 @@
         <v>12</v>
       </c>
       <c r="H11" s="22" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="L11" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="O11" s="27" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="P11" s="25">
         <v>0.98184800000000005</v>
@@ -8061,13 +7635,13 @@
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C12" s="9" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D12" s="9">
         <v>750</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F12" s="9" t="s">
         <v>16</v>
@@ -8079,16 +7653,16 @@
         <v>15</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="O12" s="26" t="s">
         <v>15</v>
@@ -8130,68 +7704,68 @@
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.3">
       <c r="E20" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.3">
       <c r="E21" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.3">
       <c r="E23" s="21" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B26" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="28"/>
-      <c r="N26" s="28"/>
-      <c r="O26" s="28"/>
+      <c r="B26" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="30"/>
+      <c r="N26" s="30"/>
+      <c r="O26" s="30"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="28"/>
-      <c r="M27" s="28"/>
-      <c r="N27" s="28"/>
-      <c r="O27" s="28"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="30"/>
+      <c r="N27" s="30"/>
+      <c r="O27" s="30"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="28"/>
-      <c r="M28" s="28"/>
-      <c r="N28" s="28"/>
-      <c r="O28" s="28"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="30"/>
+      <c r="N28" s="30"/>
+      <c r="O28" s="30"/>
     </row>
     <row r="30" spans="2:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="F30" s="8" t="s">
@@ -8224,24 +7798,24 @@
         <v>17</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M31" s="14" t="s">
         <v>2</v>
       </c>
       <c r="N31" s="13" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C32" s="6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D32" s="6">
         <v>750</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>16</v>
@@ -8253,13 +7827,13 @@
         <v>11</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="M32" s="26" t="s">
         <v>11</v>
@@ -8270,13 +7844,13 @@
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C33" s="6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D33" s="6">
         <v>750</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F33" s="6" t="s">
         <v>16</v>
@@ -8288,13 +7862,13 @@
         <v>14</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="M33" s="26" t="s">
         <v>14</v>
@@ -8305,13 +7879,13 @@
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C34" s="6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D34" s="6">
         <v>750</v>
       </c>
       <c r="E34" s="19" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>16</v>
@@ -8320,19 +7894,19 @@
         <v>12</v>
       </c>
       <c r="H34" s="18" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="I34" s="17" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="M34" s="26" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="N34" s="7">
         <v>0.94114500000000001</v>
@@ -8340,13 +7914,13 @@
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C35" s="6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D35" s="6">
         <v>750</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F35" s="9" t="s">
         <v>16</v>
@@ -8357,13 +7931,21 @@
       <c r="H35" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
+      <c r="I35" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="J35" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="K35" s="10" t="s">
+        <v>81</v>
+      </c>
       <c r="M35" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="N35" s="7"/>
+      <c r="N35" s="7">
+        <v>0.73576699999999995</v>
+      </c>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C36" s="1"/>
@@ -8401,7 +7983,7 @@
     </row>
     <row r="42" spans="2:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="F42" s="8" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.3">
@@ -8430,27 +8012,27 @@
         <v>17</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M43" s="14" t="s">
         <v>2</v>
       </c>
       <c r="N43" s="13" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C44" s="6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D44" s="6">
         <v>750</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="G44" s="6" t="s">
         <v>12</v>
@@ -8458,34 +8040,34 @@
       <c r="H44" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I44" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="J44" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="K44" s="29">
+      <c r="I44" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="J44" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="K44" s="28">
         <v>-4.1769170000000004</v>
       </c>
       <c r="M44" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="N44" s="29">
+      <c r="N44" s="28">
         <v>-4.1769170000000004</v>
       </c>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C45" s="6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D45" s="6">
         <v>750</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="G45" s="6" t="s">
         <v>12</v>
@@ -8493,70 +8075,70 @@
       <c r="H45" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I45" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="J45" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="K45" s="29">
+      <c r="I45" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="J45" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="K45" s="28">
         <v>-0.987927</v>
       </c>
       <c r="M45" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="N45" s="29">
+      <c r="N45" s="28">
         <v>-0.987927</v>
       </c>
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C46" s="6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D46" s="6">
         <v>750</v>
       </c>
       <c r="E46" s="19" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="G46" s="6" t="s">
         <v>12</v>
       </c>
       <c r="H46" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="I46" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="J46" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="K46" s="29">
+        <v>24</v>
+      </c>
+      <c r="I46" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="J46" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="K46" s="28">
         <v>-4.3778280000000001</v>
       </c>
       <c r="M46" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="N46" s="29">
+        <v>24</v>
+      </c>
+      <c r="N46" s="28">
         <v>-4.3778280000000001</v>
       </c>
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D47" s="6">
         <v>750</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="G47" s="9" t="s">
         <v>12</v>
@@ -8564,20 +8146,28 @@
       <c r="H47" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="I47" s="30"/>
-      <c r="J47" s="30"/>
-      <c r="K47" s="30"/>
+      <c r="I47" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="J47" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="K47" s="29">
+        <v>-0.36699100000000001</v>
+      </c>
       <c r="M47" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="N47" s="29"/>
+      <c r="N47" s="28">
+        <v>-0.36699100000000001</v>
+      </c>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
     </row>
     <row r="49" spans="3:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="F49" s="8" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="50" spans="3:14" x14ac:dyDescent="0.3">
@@ -8606,27 +8196,27 @@
         <v>17</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M50" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="N50" s="14" t="s">
-        <v>3</v>
+      <c r="N50" s="13" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C51" s="6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D51" s="6">
         <v>750</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G51" s="6" t="s">
         <v>12</v>
@@ -8634,34 +8224,34 @@
       <c r="H51" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I51" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="J51" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="K51" s="29">
+      <c r="I51" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="J51" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="K51" s="28">
         <v>-2.5404529999999999</v>
       </c>
-      <c r="M51" s="18" t="s">
+      <c r="M51" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="N51" s="17">
-        <v>0.456959</v>
+      <c r="N51" s="28">
+        <v>-2.5404529999999999</v>
       </c>
     </row>
     <row r="52" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C52" s="6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D52" s="6">
         <v>750</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G52" s="6" t="s">
         <v>12</v>
@@ -8669,69 +8259,69 @@
       <c r="H52" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I52" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="J52" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="K52" s="29">
+      <c r="I52" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="J52" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="K52" s="28">
         <v>-0.987927</v>
       </c>
-      <c r="M52" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="N52" s="7">
-        <v>0.54992600000000003</v>
+      <c r="M52" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="N52" s="28">
+        <v>-0.987927</v>
       </c>
     </row>
     <row r="53" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C53" s="6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D53" s="6">
         <v>750</v>
       </c>
       <c r="E53" s="19" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G53" s="6" t="s">
         <v>12</v>
       </c>
       <c r="H53" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="I53" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="J53" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="K53" s="29">
+        <v>24</v>
+      </c>
+      <c r="I53" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="J53" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="K53" s="28">
         <v>-2.577391</v>
       </c>
-      <c r="M53" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="N53" s="7">
-        <v>0.73137399999999997</v>
+      <c r="M53" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="N53" s="28">
+        <v>-2.577391</v>
       </c>
     </row>
     <row r="54" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C54" s="6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D54" s="6">
         <v>750</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G54" s="9" t="s">
         <v>12</v>
@@ -8739,14 +8329,20 @@
       <c r="H54" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="I54" s="30"/>
-      <c r="J54" s="30"/>
-      <c r="K54" s="30"/>
-      <c r="M54" s="11" t="s">
+      <c r="I54" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="J54" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="K54" s="29">
+        <v>-0.91889900000000002</v>
+      </c>
+      <c r="M54" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="N54" s="7">
-        <v>0.57833100000000004</v>
+      <c r="N54" s="28">
+        <v>-0.91889900000000002</v>
       </c>
     </row>
     <row r="63" spans="3:14" x14ac:dyDescent="0.3">
@@ -8756,22 +8352,12 @@
     </row>
     <row r="64" spans="3:14" x14ac:dyDescent="0.3">
       <c r="E64" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="65" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E65" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="66" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E66" t="s">
-        <v>22</v>
+        <v>88</v>
       </c>
     </row>
     <row r="67" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E67" s="21" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -8783,76 +8369,83 @@
     <mergeCell ref="B26:O28"/>
   </mergeCells>
   <conditionalFormatting sqref="L8:L9 L11">
-    <cfRule type="expression" dxfId="68" priority="112">
+    <cfRule type="expression" dxfId="92" priority="121">
       <formula>L8=MAX($L8:$L12)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K32:K35">
-    <cfRule type="cellIs" dxfId="67" priority="42" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="91" priority="51" operator="greaterThan">
       <formula>"0.6"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="43" operator="between">
+    <cfRule type="cellIs" dxfId="90" priority="52" operator="between">
       <formula>"0.4999"</formula>
       <formula>"0.5999"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K44:K46">
-    <cfRule type="cellIs" dxfId="65" priority="13" operator="greaterThan">
-      <formula>0.6</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="14" operator="between">
-      <formula>0.5</formula>
-      <formula>0.599999</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="15" operator="lessThan">
-      <formula>0.4999</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="37" operator="between">
-      <formula>"-10.0"</formula>
-      <formula>"0.499"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="38" operator="greaterThan">
-      <formula>"0.6"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="39" operator="between">
+    <cfRule type="cellIs" dxfId="89" priority="48" operator="between">
       <formula>"0.4999"</formula>
       <formula>"0.5999"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K51:K53">
-    <cfRule type="cellIs" dxfId="59" priority="31" operator="lessThan">
+    <cfRule type="cellIs" dxfId="88" priority="40" operator="lessThan">
       <formula>"0.499"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="87" priority="41" operator="greaterThan">
       <formula>"0.6"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="33" operator="between">
+    <cfRule type="cellIs" dxfId="86" priority="42" operator="between">
       <formula>"0.4999"</formula>
       <formula>"0.5999"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="expression" dxfId="56" priority="24">
+    <cfRule type="expression" dxfId="85" priority="33">
       <formula>L12=MAX($L12:$L16)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8:L12">
-    <cfRule type="cellIs" dxfId="55" priority="23" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="84" priority="32" operator="greaterThan">
       <formula>"0.6"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11">
-    <cfRule type="cellIs" dxfId="54" priority="22" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="83" priority="31" operator="greaterThan">
       <formula>"0.98"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N32:N35">
-    <cfRule type="cellIs" dxfId="53" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="82" priority="25" operator="greaterThan">
       <formula>"0.6"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="17" operator="between">
+    <cfRule type="cellIs" dxfId="81" priority="26" operator="between">
       <formula>"0.4999"</formula>
       <formula>"0.5999"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K34">
+    <cfRule type="cellIs" dxfId="80" priority="9" operator="greaterThan">
+      <formula>"0.91"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K44:K47">
+    <cfRule type="cellIs" dxfId="79" priority="24" operator="lessThan">
+      <formula>0.4999</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="46" operator="between">
+      <formula>"-10.0"</formula>
+      <formula>"0.499"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="77" priority="47" operator="greaterThan">
+      <formula>"0.6"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="76" priority="23" operator="between">
+      <formula>0.5</formula>
+      <formula>0.599999</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="75" priority="22" operator="greaterThan">
+      <formula>0.6</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Server/Notebooks/FINGERPRINT/results_fingerprinting.xlsx
+++ b/Server/Notebooks/FINGERPRINT/results_fingerprinting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\College\5th Year College\TESE\Desenvolvimento\Code\Application\findLocationApp\findLocation\Server\Notebooks\FINGERPRINT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94EFC588-9330-447A-86DE-BE9FFC7CB5BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A249370D-B979-4D61-8434-520B667AC0F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{22682DBA-70EE-47D9-880F-69553294C7AC}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="104">
   <si>
     <t>DATASET USED</t>
   </si>
@@ -304,6 +304,48 @@
   <si>
     <t>Random Forest and KNN seem to work if the zone is radio mapped</t>
   </si>
+  <si>
+    <t>FINGERPRINTING LOGO REGRESSION RESULTS</t>
+  </si>
+  <si>
+    <t>0.357393</t>
+  </si>
+  <si>
+    <t>1.603255</t>
+  </si>
+  <si>
+    <t>1.462987</t>
+  </si>
+  <si>
+    <t>0.430932</t>
+  </si>
+  <si>
+    <t>1.508732</t>
+  </si>
+  <si>
+    <t>1.394118</t>
+  </si>
+  <si>
+    <t>0.401263</t>
+  </si>
+  <si>
+    <t>1.547562</t>
+  </si>
+  <si>
+    <t>1.390924</t>
+  </si>
+  <si>
+    <t>* BLE has the best results in LOGO</t>
+  </si>
+  <si>
+    <t>1.390476</t>
+  </si>
+  <si>
+    <t>1.515245</t>
+  </si>
+  <si>
+    <t>0.401356</t>
+  </si>
 </sst>
 </file>
 
@@ -509,7 +551,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -591,11 +633,21 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="4" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="142">
+  <dxfs count="120">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -611,9 +663,1284 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -641,7 +1968,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC000"/>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -651,6 +1985,1782 @@
           <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -790,2245 +3900,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -3120,9 +3991,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>F1-SCORE</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -3231,9 +4099,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Folha1!$O$8:$O$11</c:f>
+              <c:f>Folha1!$O$8:$O$12</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>KNN</c:v>
                 </c:pt>
@@ -3246,15 +4114,18 @@
                 <c:pt idx="3">
                   <c:v>RF</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>MLP</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Folha1!$P$8:$P$11</c:f>
+              <c:f>Folha1!$P$8:$P$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.97095200000000004</c:v>
                 </c:pt>
@@ -3266,6 +4137,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.98184800000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.92230999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4630,6 +5504,1186 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>DATASET UNIVVERSITY TRAINING SCORE</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:marker>
+              <c:symbol val="diamond"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-BAB9-4480-9BB5-4264F1363E9F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Folha1!$M$32:$M$35</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>KNN</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>RF</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MLP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Folha1!$N$32:$N$35</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.90921200000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.87549399999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.94114500000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.73576699999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BAB9-4480-9BB5-4264F1363E9F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="438030080"/>
+        <c:axId val="438029096"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="438030080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="438029096"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="438029096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="438030080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>DIFFERENT ENVIRONMENT / BLE</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:marker>
+              <c:symbol val="diamond"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-17DD-4B62-BEFC-36300B2698EC}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Folha1!$M$44:$M$47</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>KNN</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>RF</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MLP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Folha1!$N$44:$N$47</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>-4.1769170000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.987927</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4.3778280000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.36699100000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-17DD-4B62-BEFC-36300B2698EC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="545623680"/>
+        <c:axId val="545622696"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="545623680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="545622696"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="545622696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="545623680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>DIFFERENT ENVIRONMENT</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> / BLE v2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:marker>
+              <c:symbol val="diamond"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-5539-4785-BF95-484B3B17C5B8}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Folha1!$M$51:$M$54</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>KNN</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>RF</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MLP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Folha1!$N$51:$N$54</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>-2.5404529999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.987927</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.577391</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.91889900000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5539-4785-BF95-484B3B17C5B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="436285808"/>
+        <c:axId val="436287776"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="436285808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="436287776"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="436287776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="436285808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -4790,6 +6844,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -6326,6 +8500,1554 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6987,59 +10709,173 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>846844</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>11142</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>332672</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>16698</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Gráfico 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F4CB30C-F866-4C57-9281-43DEFC135233}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>818877</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>63545</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>299357</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>176893</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Gráfico 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1977536D-60FB-415C-A6DE-937A8FB069D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1375951</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>101643</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>97154</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>139880</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Gráfico 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85A8FD6B-C10E-4F52-ABA1-90A43A999E5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{80D23CFC-08CC-411A-A4F1-FD79922D10A3}" name="Tabela1" displayName="Tabela1" ref="C7:L12" totalsRowShown="0" headerRowDxfId="141" dataDxfId="140" tableBorderDxfId="139">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{80D23CFC-08CC-411A-A4F1-FD79922D10A3}" name="Tabela1" displayName="Tabela1" ref="C7:L12" totalsRowShown="0" headerRowDxfId="101" dataDxfId="100" tableBorderDxfId="99">
   <autoFilter ref="C7:L12" xr:uid="{DFBD5CF0-3B05-4F18-934A-4746EEAE7074}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{26DA34DF-8177-4442-A2D3-8EB9AD72DF1F}" name="DATASET USED" dataDxfId="138"/>
-    <tableColumn id="2" xr3:uid="{0F67067D-DC1E-40F7-B158-8349CDC4D2BD}" name="NUMBER OF SAMPLES" dataDxfId="137"/>
-    <tableColumn id="3" xr3:uid="{39DF035D-1EAA-4B9F-87E6-B5266981D298}" name="TRAINING SET PERFORMANCE" dataDxfId="136"/>
-    <tableColumn id="4" xr3:uid="{2D8408D4-33AD-4CD0-8FF1-B7C4D375DBB8}" name="TEST SET USED" dataDxfId="135"/>
-    <tableColumn id="5" xr3:uid="{E30FD73D-642C-4C28-A7D5-C3657D007A79}" name="DEVICE" dataDxfId="134"/>
-    <tableColumn id="6" xr3:uid="{9AEC8ABB-593B-4AC8-92B3-C100A2126814}" name="ALGORITHM" dataDxfId="133"/>
-    <tableColumn id="7" xr3:uid="{5B7F94A2-EF15-4A03-8E8B-8FEFE4A1E148}" name="MAE" dataDxfId="132"/>
-    <tableColumn id="8" xr3:uid="{89A9952A-3310-4FAA-993F-3D39EF2C91BA}" name="RMSE" dataDxfId="131"/>
-    <tableColumn id="9" xr3:uid="{6E36E7A8-564E-4DAA-956A-4D29821E808E}" name="ACCURACY" dataDxfId="130"/>
-    <tableColumn id="10" xr3:uid="{123E2326-DCC7-449A-9982-4EEB64A1F1B6}" name="F1-SCORE" dataDxfId="129"/>
+    <tableColumn id="1" xr3:uid="{26DA34DF-8177-4442-A2D3-8EB9AD72DF1F}" name="DATASET USED" dataDxfId="98"/>
+    <tableColumn id="2" xr3:uid="{0F67067D-DC1E-40F7-B158-8349CDC4D2BD}" name="NUMBER OF SAMPLES" dataDxfId="97"/>
+    <tableColumn id="3" xr3:uid="{39DF035D-1EAA-4B9F-87E6-B5266981D298}" name="TRAINING SET PERFORMANCE" dataDxfId="96"/>
+    <tableColumn id="4" xr3:uid="{2D8408D4-33AD-4CD0-8FF1-B7C4D375DBB8}" name="TEST SET USED" dataDxfId="95"/>
+    <tableColumn id="5" xr3:uid="{E30FD73D-642C-4C28-A7D5-C3657D007A79}" name="DEVICE" dataDxfId="94"/>
+    <tableColumn id="6" xr3:uid="{9AEC8ABB-593B-4AC8-92B3-C100A2126814}" name="ALGORITHM" dataDxfId="93"/>
+    <tableColumn id="7" xr3:uid="{5B7F94A2-EF15-4A03-8E8B-8FEFE4A1E148}" name="MAE" dataDxfId="92"/>
+    <tableColumn id="8" xr3:uid="{89A9952A-3310-4FAA-993F-3D39EF2C91BA}" name="RMSE" dataDxfId="91"/>
+    <tableColumn id="9" xr3:uid="{6E36E7A8-564E-4DAA-956A-4D29821E808E}" name="ACCURACY" dataDxfId="90"/>
+    <tableColumn id="10" xr3:uid="{123E2326-DCC7-449A-9982-4EEB64A1F1B6}" name="F1-SCORE" dataDxfId="89"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F47BA2B2-6A5F-4C0F-B740-6FD24D85CCBD}" name="Tabela17" displayName="Tabela17" ref="C31:K35" totalsRowShown="0" headerRowDxfId="128" dataDxfId="127" tableBorderDxfId="126">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F47BA2B2-6A5F-4C0F-B740-6FD24D85CCBD}" name="Tabela17" displayName="Tabela17" ref="C31:K35" totalsRowShown="0" headerRowDxfId="88" dataDxfId="87" tableBorderDxfId="86">
   <autoFilter ref="C31:K35" xr:uid="{8FD148E6-BB74-4903-B200-56E20FAD3F7B}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{9B699A52-34DA-48FF-8201-40A33F8DEAA9}" name="DATASET USED" dataDxfId="125"/>
-    <tableColumn id="2" xr3:uid="{38C440C5-53FA-4FC3-86C1-BBC05382945B}" name="NUMBER OF SAMPLES" dataDxfId="124"/>
-    <tableColumn id="3" xr3:uid="{2A8E7AF8-104A-44BA-AC33-41B0C6D7F8EA}" name="TRAINING SET PERFORMANCE" dataDxfId="123"/>
-    <tableColumn id="4" xr3:uid="{2C1E7EB2-341E-4D63-B851-C70DFB8523DA}" name="TEST SET USED" dataDxfId="122"/>
-    <tableColumn id="5" xr3:uid="{41AC5D33-CAF7-4135-9579-DF1EDCF9C451}" name="DEVICE" dataDxfId="121"/>
-    <tableColumn id="6" xr3:uid="{43912D0B-D8CB-49C5-89CC-FE061E8F9176}" name="ALGORITHM" dataDxfId="120"/>
-    <tableColumn id="7" xr3:uid="{1E26028C-066C-4B1A-ADB9-91AD8E90A49D}" name="MAE" dataDxfId="119"/>
-    <tableColumn id="8" xr3:uid="{2CDC372A-0CCD-48AE-8C10-2A958573A256}" name="RMSE" dataDxfId="118"/>
-    <tableColumn id="9" xr3:uid="{1FDE3A5E-AEA9-4BA4-AE30-89B596397128}" name="R2" dataDxfId="117"/>
+    <tableColumn id="1" xr3:uid="{9B699A52-34DA-48FF-8201-40A33F8DEAA9}" name="DATASET USED" dataDxfId="85"/>
+    <tableColumn id="2" xr3:uid="{38C440C5-53FA-4FC3-86C1-BBC05382945B}" name="NUMBER OF SAMPLES" dataDxfId="84"/>
+    <tableColumn id="3" xr3:uid="{2A8E7AF8-104A-44BA-AC33-41B0C6D7F8EA}" name="TRAINING SET PERFORMANCE" dataDxfId="83"/>
+    <tableColumn id="4" xr3:uid="{2C1E7EB2-341E-4D63-B851-C70DFB8523DA}" name="TEST SET USED" dataDxfId="82"/>
+    <tableColumn id="5" xr3:uid="{41AC5D33-CAF7-4135-9579-DF1EDCF9C451}" name="DEVICE" dataDxfId="81"/>
+    <tableColumn id="6" xr3:uid="{43912D0B-D8CB-49C5-89CC-FE061E8F9176}" name="ALGORITHM" dataDxfId="80"/>
+    <tableColumn id="7" xr3:uid="{1E26028C-066C-4B1A-ADB9-91AD8E90A49D}" name="MAE" dataDxfId="79"/>
+    <tableColumn id="8" xr3:uid="{2CDC372A-0CCD-48AE-8C10-2A958573A256}" name="RMSE" dataDxfId="78"/>
+    <tableColumn id="9" xr3:uid="{1FDE3A5E-AEA9-4BA4-AE30-89B596397128}" name="R2" dataDxfId="77"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{A6F50936-2737-43F6-B505-1A1CB374A1D6}" name="Tabela28" displayName="Tabela28" ref="C43:K47" totalsRowShown="0" headerRowDxfId="116" dataDxfId="115" tableBorderDxfId="114">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{A6F50936-2737-43F6-B505-1A1CB374A1D6}" name="Tabela28" displayName="Tabela28" ref="C43:K47" totalsRowShown="0" headerRowDxfId="76" dataDxfId="75" tableBorderDxfId="74">
   <autoFilter ref="C43:K47" xr:uid="{47CECD53-9900-4EA8-BF2F-5D0E26457539}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{47C7938A-457D-47B2-8E97-A18A74BD5FD2}" name="DATASET USED" dataDxfId="113"/>
-    <tableColumn id="2" xr3:uid="{7CA88261-8444-430C-A8E8-46E5CBDAC96F}" name="NUMBER OF SAMPLES" dataDxfId="112"/>
-    <tableColumn id="3" xr3:uid="{675E8FF8-7883-47DF-B629-5851FC05AFB6}" name="TRAINING SET PERFORMANCE" dataDxfId="111"/>
-    <tableColumn id="4" xr3:uid="{B53A96C4-1D12-4ABC-8DD4-0C92E4ACA4D8}" name="TEST SET USED" dataDxfId="110"/>
-    <tableColumn id="5" xr3:uid="{EC0DA554-107E-442D-A100-80FBBA24ED8D}" name="DEVICE" dataDxfId="109"/>
-    <tableColumn id="6" xr3:uid="{B2533DD9-5E06-4FF5-86BF-E8D7771D354D}" name="ALGORITHM" dataDxfId="108"/>
-    <tableColumn id="7" xr3:uid="{E020E96A-4865-4567-9BAC-8C1AE263B1CF}" name="MAE" dataDxfId="107"/>
-    <tableColumn id="8" xr3:uid="{16341F1A-F688-4436-9319-BA524F079D33}" name="RMSE" dataDxfId="106"/>
-    <tableColumn id="9" xr3:uid="{088318A1-1E7C-4E56-A3F0-0A062096151E}" name="R2" dataDxfId="105">
+    <tableColumn id="1" xr3:uid="{47C7938A-457D-47B2-8E97-A18A74BD5FD2}" name="DATASET USED" dataDxfId="73"/>
+    <tableColumn id="2" xr3:uid="{7CA88261-8444-430C-A8E8-46E5CBDAC96F}" name="NUMBER OF SAMPLES" dataDxfId="72"/>
+    <tableColumn id="3" xr3:uid="{675E8FF8-7883-47DF-B629-5851FC05AFB6}" name="TRAINING SET PERFORMANCE" dataDxfId="71"/>
+    <tableColumn id="4" xr3:uid="{B53A96C4-1D12-4ABC-8DD4-0C92E4ACA4D8}" name="TEST SET USED" dataDxfId="70"/>
+    <tableColumn id="5" xr3:uid="{EC0DA554-107E-442D-A100-80FBBA24ED8D}" name="DEVICE" dataDxfId="69"/>
+    <tableColumn id="6" xr3:uid="{B2533DD9-5E06-4FF5-86BF-E8D7771D354D}" name="ALGORITHM" dataDxfId="68"/>
+    <tableColumn id="7" xr3:uid="{E020E96A-4865-4567-9BAC-8C1AE263B1CF}" name="MAE" dataDxfId="67"/>
+    <tableColumn id="8" xr3:uid="{16341F1A-F688-4436-9319-BA524F079D33}" name="RMSE" dataDxfId="66"/>
+    <tableColumn id="9" xr3:uid="{088318A1-1E7C-4E56-A3F0-0A062096151E}" name="R2" dataDxfId="65">
       <calculatedColumnFormula array="1">-_FV( 2,"540453")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7048,18 +10884,74 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{61FFE7F8-BDFB-44D4-9347-98B8061387D4}" name="Tabela249" displayName="Tabela249" ref="C50:K54" totalsRowShown="0" headerRowDxfId="104" dataDxfId="103" tableBorderDxfId="102">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{61FFE7F8-BDFB-44D4-9347-98B8061387D4}" name="Tabela249" displayName="Tabela249" ref="C50:K54" totalsRowShown="0" headerRowDxfId="64" dataDxfId="63" tableBorderDxfId="62">
   <autoFilter ref="C50:K54" xr:uid="{0CC6D720-2EB7-4AD3-BF62-D45B83368F42}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{82DBB22A-0376-4496-8DD5-75459BAEEE30}" name="DATASET USED" dataDxfId="101"/>
-    <tableColumn id="2" xr3:uid="{41CBB1F7-215A-45A2-BA8F-32A79E3D8F61}" name="NUMBER OF SAMPLES" dataDxfId="100"/>
-    <tableColumn id="3" xr3:uid="{B587A23D-4A2D-489A-ACE6-403ED250C36C}" name="TRAINING SET PERFORMANCE" dataDxfId="99"/>
-    <tableColumn id="4" xr3:uid="{02310B5B-B568-4332-B3E5-FC21C0EAECD5}" name="TEST SET USED" dataDxfId="98"/>
-    <tableColumn id="5" xr3:uid="{1CA3382E-E907-44E3-A2E7-AA671425D9F1}" name="DEVICE" dataDxfId="97"/>
-    <tableColumn id="6" xr3:uid="{E76F86B9-986A-403D-B689-C1530CFC39FE}" name="ALGORITHM" dataDxfId="96"/>
-    <tableColumn id="7" xr3:uid="{3E0011D5-6EDC-4206-8F77-F47EA6CA1457}" name="MAE" dataDxfId="95"/>
-    <tableColumn id="8" xr3:uid="{8AA9FC09-AF58-4633-9A7F-DF7A77818511}" name="RMSE" dataDxfId="94"/>
-    <tableColumn id="9" xr3:uid="{BC7F5CEB-BAFA-4F93-86F6-5F886BAEEC00}" name="R2" dataDxfId="93"/>
+    <tableColumn id="1" xr3:uid="{82DBB22A-0376-4496-8DD5-75459BAEEE30}" name="DATASET USED" dataDxfId="61"/>
+    <tableColumn id="2" xr3:uid="{41CBB1F7-215A-45A2-BA8F-32A79E3D8F61}" name="NUMBER OF SAMPLES" dataDxfId="60"/>
+    <tableColumn id="3" xr3:uid="{B587A23D-4A2D-489A-ACE6-403ED250C36C}" name="TRAINING SET PERFORMANCE" dataDxfId="59"/>
+    <tableColumn id="4" xr3:uid="{02310B5B-B568-4332-B3E5-FC21C0EAECD5}" name="TEST SET USED" dataDxfId="58"/>
+    <tableColumn id="5" xr3:uid="{1CA3382E-E907-44E3-A2E7-AA671425D9F1}" name="DEVICE" dataDxfId="57"/>
+    <tableColumn id="6" xr3:uid="{E76F86B9-986A-403D-B689-C1530CFC39FE}" name="ALGORITHM" dataDxfId="56"/>
+    <tableColumn id="7" xr3:uid="{3E0011D5-6EDC-4206-8F77-F47EA6CA1457}" name="MAE" dataDxfId="55"/>
+    <tableColumn id="8" xr3:uid="{8AA9FC09-AF58-4633-9A7F-DF7A77818511}" name="RMSE" dataDxfId="54"/>
+    <tableColumn id="9" xr3:uid="{BC7F5CEB-BAFA-4F93-86F6-5F886BAEEC00}" name="R2" dataDxfId="53"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{86EB226B-9AAF-424A-8254-F445FEEE8CE0}" name="Tabela173" displayName="Tabela173" ref="C78:K82" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37" tableBorderDxfId="36">
+  <autoFilter ref="C78:K82" xr:uid="{019A7902-81BD-4720-8A3B-4607502D0F58}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{C088EB04-20B2-41DC-964C-EFA26F872006}" name="DATASET USED" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{A334EF0C-295D-45E0-81B3-DF128AAD4D50}" name="NUMBER OF SAMPLES" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{3271F5C9-28DE-4E20-B306-EB96B385BCC4}" name="TRAINING SET PERFORMANCE" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{3F4A4F48-2AA2-4B18-8340-D09DAD48664A}" name="TEST SET USED" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{601253CD-D93A-470D-97B3-3CDF871B2B39}" name="DEVICE" dataDxfId="31"/>
+    <tableColumn id="6" xr3:uid="{DB294BD1-63CC-4331-9982-FAA10E6ED049}" name="ALGORITHM" dataDxfId="30"/>
+    <tableColumn id="7" xr3:uid="{2B7FBB3A-C1FB-4331-8C2B-56F88F827318}" name="MAE" dataDxfId="29"/>
+    <tableColumn id="8" xr3:uid="{D45D0D9F-7A9D-4986-980C-FE44D89D0C39}" name="RMSE" dataDxfId="28"/>
+    <tableColumn id="9" xr3:uid="{0D31959D-E7A8-4A82-BAA9-3F9E0574AB64}" name="R2" dataDxfId="27"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{03354D2C-C1F6-4760-B626-F9D03BAF6117}" name="Tabela284" displayName="Tabela284" ref="C90:K94" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25" tableBorderDxfId="24">
+  <autoFilter ref="C90:K94" xr:uid="{35FB1E17-82B5-4983-A98B-5BB79048B025}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{6C3E7EBD-1BAD-471C-B038-5E98F89ADEE8}" name="DATASET USED" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{A3B54D9E-A0A4-4E6D-9C60-A30E2504A255}" name="NUMBER OF SAMPLES" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{74585067-6CD7-477E-BE49-72A01EF1D6A8}" name="TRAINING SET PERFORMANCE" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{300E84A7-427F-4C76-B131-3A7CEB564284}" name="TEST SET USED" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{551A84B1-DF83-4622-AE6D-0B0A24655446}" name="DEVICE" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{5882A60D-FA4E-4D09-9CDC-5909B7FC8514}" name="ALGORITHM" dataDxfId="18"/>
+    <tableColumn id="7" xr3:uid="{EA309B82-E083-4FB1-995A-992EBE89F934}" name="MAE" dataDxfId="17"/>
+    <tableColumn id="8" xr3:uid="{ACB9CBEC-F2C1-4DD1-866E-B3067BDA8AC0}" name="RMSE" dataDxfId="16"/>
+    <tableColumn id="9" xr3:uid="{4A220035-6F92-4751-9F8C-E1ED49D4D881}" name="R2" dataDxfId="15">
+      <calculatedColumnFormula array="1">-_FV( 2,"540453")</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00F2ABAC-EDA2-40E9-96B9-9E752CE1E991}" name="Tabela2495" displayName="Tabela2495" ref="C97:K101" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" tableBorderDxfId="12">
+  <autoFilter ref="C97:K101" xr:uid="{A29C1DFD-FE82-4164-A7D8-AA196353E6CD}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{3B6D27C9-7478-4FF4-8B20-90C0A6B4BD51}" name="DATASET USED" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{E156DDB2-F556-4E4D-832F-8BD5A54DC901}" name="NUMBER OF SAMPLES" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{0ED86B38-76F3-45CE-914E-F3CC586F5BF4}" name="TRAINING SET PERFORMANCE" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{04614F0D-6A07-43AA-85BF-B6B70108EFBE}" name="TEST SET USED" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{7A05CA5D-C9E9-45BB-8593-2F29673965DF}" name="DEVICE" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{88766DA0-6B66-4865-BC70-C58815CDAD6A}" name="ALGORITHM" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{86AD69B2-5023-4248-997E-97980406F9AD}" name="MAE" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{F1D939D3-5FEF-4BC2-8A1E-E12525260989}" name="RMSE" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{9B192FD9-2AF7-4BE8-ACD6-AC9E063C0146}" name="R2" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7362,10 +11254,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9805F76B-573A-4178-B9E3-1E65A92A3888}">
-  <dimension ref="B2:P67"/>
+  <dimension ref="B2:P114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G61" sqref="G61"/>
+    <sheetView tabSelected="1" topLeftCell="E61" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H88" sqref="H88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8143,7 +12035,7 @@
       <c r="G47" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H47" s="12" t="s">
+      <c r="H47" s="22" t="s">
         <v>15</v>
       </c>
       <c r="I47" s="29" t="s">
@@ -8326,7 +12218,7 @@
       <c r="G54" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H54" s="12" t="s">
+      <c r="H54" s="22" t="s">
         <v>15</v>
       </c>
       <c r="I54" s="29" t="s">
@@ -8355,8 +12247,656 @@
         <v>88</v>
       </c>
     </row>
-    <row r="67" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.3">
       <c r="E67" s="21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B73" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="C73" s="30"/>
+      <c r="D73" s="30"/>
+      <c r="E73" s="30"/>
+      <c r="F73" s="30"/>
+      <c r="G73" s="30"/>
+      <c r="H73" s="30"/>
+      <c r="I73" s="30"/>
+      <c r="J73" s="30"/>
+      <c r="K73" s="30"/>
+      <c r="L73" s="30"/>
+      <c r="M73" s="30"/>
+      <c r="N73" s="30"/>
+      <c r="O73" s="30"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B74" s="30"/>
+      <c r="C74" s="30"/>
+      <c r="D74" s="30"/>
+      <c r="E74" s="30"/>
+      <c r="F74" s="30"/>
+      <c r="G74" s="30"/>
+      <c r="H74" s="30"/>
+      <c r="I74" s="30"/>
+      <c r="J74" s="30"/>
+      <c r="K74" s="30"/>
+      <c r="L74" s="30"/>
+      <c r="M74" s="30"/>
+      <c r="N74" s="30"/>
+      <c r="O74" s="30"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B75" s="30"/>
+      <c r="C75" s="30"/>
+      <c r="D75" s="30"/>
+      <c r="E75" s="30"/>
+      <c r="F75" s="30"/>
+      <c r="G75" s="30"/>
+      <c r="H75" s="30"/>
+      <c r="I75" s="30"/>
+      <c r="J75" s="30"/>
+      <c r="K75" s="30"/>
+      <c r="L75" s="30"/>
+      <c r="M75" s="30"/>
+      <c r="N75" s="30"/>
+      <c r="O75" s="30"/>
+    </row>
+    <row r="77" spans="2:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="F77" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="78" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C78" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M78" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N78" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C79" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D79" s="6">
+        <v>750</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G79" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H79" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I79" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J79" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K79" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="M79" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="N79" s="7">
+        <v>0.35739300000000002</v>
+      </c>
+    </row>
+    <row r="80" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C80" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D80" s="6">
+        <v>750</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F80" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G80" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H80" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I80" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="J80" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K80" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="M80" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="N80" s="7">
+        <v>0.40126299999999998</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C81" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D81" s="6">
+        <v>750</v>
+      </c>
+      <c r="E81" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="F81" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G81" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H81" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I81" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="J81" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K81" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="M81" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="N81" s="7">
+        <v>0.43093199999999998</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C82" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D82" s="6">
+        <v>750</v>
+      </c>
+      <c r="E82" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F82" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G82" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H82" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I82" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="J82" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="K82" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="M82" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="N82" s="7">
+        <v>0.40135599999999999</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="F85" s="3"/>
+      <c r="G85" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="F86" s="4"/>
+      <c r="G86" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="F87" s="5"/>
+      <c r="G87" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="89" spans="2:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="F89" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C90" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J90" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K90" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M90" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N90" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C91" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D91" s="6">
+        <v>750</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F91" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G91" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H91" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I91" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="J91" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="K91" s="28">
+        <v>-4.1769170000000004</v>
+      </c>
+      <c r="M91" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="N91" s="28">
+        <v>-4.1769170000000004</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C92" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D92" s="6">
+        <v>750</v>
+      </c>
+      <c r="E92" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F92" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G92" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H92" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I92" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="J92" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="K92" s="28">
+        <v>-0.987927</v>
+      </c>
+      <c r="M92" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="N92" s="28">
+        <v>-0.987927</v>
+      </c>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C93" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D93" s="6">
+        <v>750</v>
+      </c>
+      <c r="E93" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="F93" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G93" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H93" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I93" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="J93" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="K93" s="28">
+        <v>-4.3778280000000001</v>
+      </c>
+      <c r="M93" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="N93" s="28">
+        <v>-4.3778280000000001</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B94" s="1"/>
+      <c r="C94" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D94" s="6">
+        <v>750</v>
+      </c>
+      <c r="E94" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F94" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G94" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H94" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I94" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="J94" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="K94" s="29">
+        <v>-0.36699100000000001</v>
+      </c>
+      <c r="M94" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="N94" s="28">
+        <v>-0.36699100000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B95" s="1"/>
+    </row>
+    <row r="96" spans="2:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="F96" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C97" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J97" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K97" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M97" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N97" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C98" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D98" s="6">
+        <v>750</v>
+      </c>
+      <c r="E98" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F98" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G98" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H98" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I98" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="J98" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="K98" s="28">
+        <v>-2.5404529999999999</v>
+      </c>
+      <c r="M98" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="N98" s="28">
+        <v>-2.5404529999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C99" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D99" s="6">
+        <v>750</v>
+      </c>
+      <c r="E99" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F99" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G99" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H99" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I99" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="J99" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="K99" s="28">
+        <v>-0.987927</v>
+      </c>
+      <c r="M99" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="N99" s="28">
+        <v>-0.987927</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C100" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D100" s="6">
+        <v>750</v>
+      </c>
+      <c r="E100" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="F100" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G100" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H100" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I100" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="J100" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="K100" s="28">
+        <v>-2.577391</v>
+      </c>
+      <c r="M100" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="N100" s="28">
+        <v>-2.577391</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C101" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D101" s="6">
+        <v>750</v>
+      </c>
+      <c r="E101" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F101" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G101" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H101" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I101" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="J101" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="K101" s="29">
+        <v>-0.91889900000000002</v>
+      </c>
+      <c r="M101" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="N101" s="28">
+        <v>-0.91889900000000002</v>
+      </c>
+    </row>
+    <row r="110" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="E110" s="21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="111" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="E111" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="112" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="E112" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="114" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E114" s="21" t="s">
         <v>89</v>
       </c>
     </row>
@@ -8364,98 +12904,167 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C8:G11">
     <sortCondition descending="1" ref="G8:G11"/>
   </sortState>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B2:O4"/>
     <mergeCell ref="B26:O28"/>
+    <mergeCell ref="B73:O75"/>
   </mergeCells>
   <conditionalFormatting sqref="L8:L9 L11">
-    <cfRule type="expression" dxfId="92" priority="121">
+    <cfRule type="expression" dxfId="119" priority="138">
       <formula>L8=MAX($L8:$L12)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K32:K35">
-    <cfRule type="cellIs" dxfId="91" priority="51" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="118" priority="68" operator="greaterThan">
       <formula>"0.6"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="52" operator="between">
+    <cfRule type="cellIs" dxfId="117" priority="69" operator="between">
       <formula>"0.4999"</formula>
       <formula>"0.5999"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K44:K46">
-    <cfRule type="cellIs" dxfId="89" priority="48" operator="between">
+    <cfRule type="cellIs" dxfId="116" priority="65" operator="between">
       <formula>"0.4999"</formula>
       <formula>"0.5999"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K51:K53">
-    <cfRule type="cellIs" dxfId="88" priority="40" operator="lessThan">
+    <cfRule type="cellIs" dxfId="115" priority="57" operator="lessThan">
       <formula>"0.499"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="41" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="114" priority="58" operator="greaterThan">
       <formula>"0.6"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="42" operator="between">
+    <cfRule type="cellIs" dxfId="113" priority="59" operator="between">
       <formula>"0.4999"</formula>
       <formula>"0.5999"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="expression" dxfId="85" priority="33">
+    <cfRule type="expression" dxfId="112" priority="50">
       <formula>L12=MAX($L12:$L16)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8:L12">
-    <cfRule type="cellIs" dxfId="84" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="111" priority="49" operator="greaterThan">
       <formula>"0.6"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11">
-    <cfRule type="cellIs" dxfId="83" priority="31" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="110" priority="48" operator="greaterThan">
       <formula>"0.98"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N32:N35">
-    <cfRule type="cellIs" dxfId="82" priority="25" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="109" priority="42" operator="greaterThan">
       <formula>"0.6"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="26" operator="between">
+    <cfRule type="cellIs" dxfId="108" priority="43" operator="between">
       <formula>"0.4999"</formula>
       <formula>"0.5999"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K34">
-    <cfRule type="cellIs" dxfId="80" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="107" priority="26" operator="greaterThan">
       <formula>"0.91"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K44:K47">
-    <cfRule type="cellIs" dxfId="79" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="106" priority="41" operator="lessThan">
       <formula>0.4999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="46" operator="between">
+    <cfRule type="cellIs" dxfId="105" priority="63" operator="between">
       <formula>"-10.0"</formula>
       <formula>"0.499"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="47" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="104" priority="64" operator="greaterThan">
       <formula>"0.6"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="23" operator="between">
+    <cfRule type="cellIs" dxfId="103" priority="40" operator="between">
       <formula>0.5</formula>
       <formula>0.599999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="22" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="102" priority="39" operator="greaterThan">
       <formula>0.6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K79:K82">
+    <cfRule type="cellIs" dxfId="52" priority="16" operator="greaterThan">
+      <formula>"0.6"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="51" priority="17" operator="between">
+      <formula>"0.4999"</formula>
+      <formula>"0.5999"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K91:K93">
+    <cfRule type="cellIs" dxfId="50" priority="15" operator="between">
+      <formula>"0.4999"</formula>
+      <formula>"0.5999"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K98:K100">
+    <cfRule type="cellIs" dxfId="49" priority="10" operator="lessThan">
+      <formula>"0.499"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="11" operator="greaterThan">
+      <formula>"0.6"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="47" priority="12" operator="between">
+      <formula>"0.4999"</formula>
+      <formula>"0.5999"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K81">
+    <cfRule type="cellIs" dxfId="44" priority="4" operator="greaterThan">
+      <formula>"0.91"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K91:K94">
+    <cfRule type="cellIs" dxfId="39" priority="5" operator="greaterThan">
+      <formula>0.6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="6" operator="between">
+      <formula>0.5</formula>
+      <formula>0.599999</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="43" priority="7" operator="lessThan">
+      <formula>0.4999</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="13" operator="between">
+      <formula>"-10.0"</formula>
+      <formula>"0.499"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="41" priority="14" operator="greaterThan">
+      <formula>"0.6"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N79:N82">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+      <formula>"0.6"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="between">
+      <formula>"0.4999"</formula>
+      <formula>"0.5999"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N81">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>"0.91"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <tableParts count="4">
+  <tableParts count="7">
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
     <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Server/Notebooks/FINGERPRINT/results_fingerprinting.xlsx
+++ b/Server/Notebooks/FINGERPRINT/results_fingerprinting.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\College\5th Year College\TESE\Desenvolvimento\Code\Application\findLocationApp\findLocation\Server\Notebooks\FINGERPRINT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A249370D-B979-4D61-8434-520B667AC0F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C67EDC2C-3D3F-428A-A553-3742164BE770}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{22682DBA-70EE-47D9-880F-69553294C7AC}"/>
+    <workbookView minimized="1" xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="8964" xr2:uid="{22682DBA-70EE-47D9-880F-69553294C7AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -630,38 +630,17 @@
     <xf numFmtId="2" fontId="4" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="120">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="118">
     <dxf>
       <font>
         <b/>
@@ -1931,104 +1910,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -3761,6 +3642,111 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -10827,55 +10813,55 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{80D23CFC-08CC-411A-A4F1-FD79922D10A3}" name="Tabela1" displayName="Tabela1" ref="C7:L12" totalsRowShown="0" headerRowDxfId="101" dataDxfId="100" tableBorderDxfId="99">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{80D23CFC-08CC-411A-A4F1-FD79922D10A3}" name="Tabela1" displayName="Tabela1" ref="C7:L12" totalsRowShown="0" headerRowDxfId="84" dataDxfId="83" tableBorderDxfId="82">
   <autoFilter ref="C7:L12" xr:uid="{DFBD5CF0-3B05-4F18-934A-4746EEAE7074}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{26DA34DF-8177-4442-A2D3-8EB9AD72DF1F}" name="DATASET USED" dataDxfId="98"/>
-    <tableColumn id="2" xr3:uid="{0F67067D-DC1E-40F7-B158-8349CDC4D2BD}" name="NUMBER OF SAMPLES" dataDxfId="97"/>
-    <tableColumn id="3" xr3:uid="{39DF035D-1EAA-4B9F-87E6-B5266981D298}" name="TRAINING SET PERFORMANCE" dataDxfId="96"/>
-    <tableColumn id="4" xr3:uid="{2D8408D4-33AD-4CD0-8FF1-B7C4D375DBB8}" name="TEST SET USED" dataDxfId="95"/>
-    <tableColumn id="5" xr3:uid="{E30FD73D-642C-4C28-A7D5-C3657D007A79}" name="DEVICE" dataDxfId="94"/>
-    <tableColumn id="6" xr3:uid="{9AEC8ABB-593B-4AC8-92B3-C100A2126814}" name="ALGORITHM" dataDxfId="93"/>
-    <tableColumn id="7" xr3:uid="{5B7F94A2-EF15-4A03-8E8B-8FEFE4A1E148}" name="MAE" dataDxfId="92"/>
-    <tableColumn id="8" xr3:uid="{89A9952A-3310-4FAA-993F-3D39EF2C91BA}" name="RMSE" dataDxfId="91"/>
-    <tableColumn id="9" xr3:uid="{6E36E7A8-564E-4DAA-956A-4D29821E808E}" name="ACCURACY" dataDxfId="90"/>
-    <tableColumn id="10" xr3:uid="{123E2326-DCC7-449A-9982-4EEB64A1F1B6}" name="F1-SCORE" dataDxfId="89"/>
+    <tableColumn id="1" xr3:uid="{26DA34DF-8177-4442-A2D3-8EB9AD72DF1F}" name="DATASET USED" dataDxfId="81"/>
+    <tableColumn id="2" xr3:uid="{0F67067D-DC1E-40F7-B158-8349CDC4D2BD}" name="NUMBER OF SAMPLES" dataDxfId="80"/>
+    <tableColumn id="3" xr3:uid="{39DF035D-1EAA-4B9F-87E6-B5266981D298}" name="TRAINING SET PERFORMANCE" dataDxfId="79"/>
+    <tableColumn id="4" xr3:uid="{2D8408D4-33AD-4CD0-8FF1-B7C4D375DBB8}" name="TEST SET USED" dataDxfId="78"/>
+    <tableColumn id="5" xr3:uid="{E30FD73D-642C-4C28-A7D5-C3657D007A79}" name="DEVICE" dataDxfId="77"/>
+    <tableColumn id="6" xr3:uid="{9AEC8ABB-593B-4AC8-92B3-C100A2126814}" name="ALGORITHM" dataDxfId="76"/>
+    <tableColumn id="7" xr3:uid="{5B7F94A2-EF15-4A03-8E8B-8FEFE4A1E148}" name="MAE" dataDxfId="75"/>
+    <tableColumn id="8" xr3:uid="{89A9952A-3310-4FAA-993F-3D39EF2C91BA}" name="RMSE" dataDxfId="74"/>
+    <tableColumn id="9" xr3:uid="{6E36E7A8-564E-4DAA-956A-4D29821E808E}" name="ACCURACY" dataDxfId="73"/>
+    <tableColumn id="10" xr3:uid="{123E2326-DCC7-449A-9982-4EEB64A1F1B6}" name="F1-SCORE" dataDxfId="72"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F47BA2B2-6A5F-4C0F-B740-6FD24D85CCBD}" name="Tabela17" displayName="Tabela17" ref="C31:K35" totalsRowShown="0" headerRowDxfId="88" dataDxfId="87" tableBorderDxfId="86">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F47BA2B2-6A5F-4C0F-B740-6FD24D85CCBD}" name="Tabela17" displayName="Tabela17" ref="C31:K35" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70" tableBorderDxfId="69">
   <autoFilter ref="C31:K35" xr:uid="{8FD148E6-BB74-4903-B200-56E20FAD3F7B}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{9B699A52-34DA-48FF-8201-40A33F8DEAA9}" name="DATASET USED" dataDxfId="85"/>
-    <tableColumn id="2" xr3:uid="{38C440C5-53FA-4FC3-86C1-BBC05382945B}" name="NUMBER OF SAMPLES" dataDxfId="84"/>
-    <tableColumn id="3" xr3:uid="{2A8E7AF8-104A-44BA-AC33-41B0C6D7F8EA}" name="TRAINING SET PERFORMANCE" dataDxfId="83"/>
-    <tableColumn id="4" xr3:uid="{2C1E7EB2-341E-4D63-B851-C70DFB8523DA}" name="TEST SET USED" dataDxfId="82"/>
-    <tableColumn id="5" xr3:uid="{41AC5D33-CAF7-4135-9579-DF1EDCF9C451}" name="DEVICE" dataDxfId="81"/>
-    <tableColumn id="6" xr3:uid="{43912D0B-D8CB-49C5-89CC-FE061E8F9176}" name="ALGORITHM" dataDxfId="80"/>
-    <tableColumn id="7" xr3:uid="{1E26028C-066C-4B1A-ADB9-91AD8E90A49D}" name="MAE" dataDxfId="79"/>
-    <tableColumn id="8" xr3:uid="{2CDC372A-0CCD-48AE-8C10-2A958573A256}" name="RMSE" dataDxfId="78"/>
-    <tableColumn id="9" xr3:uid="{1FDE3A5E-AEA9-4BA4-AE30-89B596397128}" name="R2" dataDxfId="77"/>
+    <tableColumn id="1" xr3:uid="{9B699A52-34DA-48FF-8201-40A33F8DEAA9}" name="DATASET USED" dataDxfId="68"/>
+    <tableColumn id="2" xr3:uid="{38C440C5-53FA-4FC3-86C1-BBC05382945B}" name="NUMBER OF SAMPLES" dataDxfId="67"/>
+    <tableColumn id="3" xr3:uid="{2A8E7AF8-104A-44BA-AC33-41B0C6D7F8EA}" name="TRAINING SET PERFORMANCE" dataDxfId="66"/>
+    <tableColumn id="4" xr3:uid="{2C1E7EB2-341E-4D63-B851-C70DFB8523DA}" name="TEST SET USED" dataDxfId="65"/>
+    <tableColumn id="5" xr3:uid="{41AC5D33-CAF7-4135-9579-DF1EDCF9C451}" name="DEVICE" dataDxfId="64"/>
+    <tableColumn id="6" xr3:uid="{43912D0B-D8CB-49C5-89CC-FE061E8F9176}" name="ALGORITHM" dataDxfId="63"/>
+    <tableColumn id="7" xr3:uid="{1E26028C-066C-4B1A-ADB9-91AD8E90A49D}" name="MAE" dataDxfId="62"/>
+    <tableColumn id="8" xr3:uid="{2CDC372A-0CCD-48AE-8C10-2A958573A256}" name="RMSE" dataDxfId="61"/>
+    <tableColumn id="9" xr3:uid="{1FDE3A5E-AEA9-4BA4-AE30-89B596397128}" name="R2" dataDxfId="60"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{A6F50936-2737-43F6-B505-1A1CB374A1D6}" name="Tabela28" displayName="Tabela28" ref="C43:K47" totalsRowShown="0" headerRowDxfId="76" dataDxfId="75" tableBorderDxfId="74">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{A6F50936-2737-43F6-B505-1A1CB374A1D6}" name="Tabela28" displayName="Tabela28" ref="C43:K47" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58" tableBorderDxfId="57">
   <autoFilter ref="C43:K47" xr:uid="{47CECD53-9900-4EA8-BF2F-5D0E26457539}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{47C7938A-457D-47B2-8E97-A18A74BD5FD2}" name="DATASET USED" dataDxfId="73"/>
-    <tableColumn id="2" xr3:uid="{7CA88261-8444-430C-A8E8-46E5CBDAC96F}" name="NUMBER OF SAMPLES" dataDxfId="72"/>
-    <tableColumn id="3" xr3:uid="{675E8FF8-7883-47DF-B629-5851FC05AFB6}" name="TRAINING SET PERFORMANCE" dataDxfId="71"/>
-    <tableColumn id="4" xr3:uid="{B53A96C4-1D12-4ABC-8DD4-0C92E4ACA4D8}" name="TEST SET USED" dataDxfId="70"/>
-    <tableColumn id="5" xr3:uid="{EC0DA554-107E-442D-A100-80FBBA24ED8D}" name="DEVICE" dataDxfId="69"/>
-    <tableColumn id="6" xr3:uid="{B2533DD9-5E06-4FF5-86BF-E8D7771D354D}" name="ALGORITHM" dataDxfId="68"/>
-    <tableColumn id="7" xr3:uid="{E020E96A-4865-4567-9BAC-8C1AE263B1CF}" name="MAE" dataDxfId="67"/>
-    <tableColumn id="8" xr3:uid="{16341F1A-F688-4436-9319-BA524F079D33}" name="RMSE" dataDxfId="66"/>
-    <tableColumn id="9" xr3:uid="{088318A1-1E7C-4E56-A3F0-0A062096151E}" name="R2" dataDxfId="65">
+    <tableColumn id="1" xr3:uid="{47C7938A-457D-47B2-8E97-A18A74BD5FD2}" name="DATASET USED" dataDxfId="56"/>
+    <tableColumn id="2" xr3:uid="{7CA88261-8444-430C-A8E8-46E5CBDAC96F}" name="NUMBER OF SAMPLES" dataDxfId="55"/>
+    <tableColumn id="3" xr3:uid="{675E8FF8-7883-47DF-B629-5851FC05AFB6}" name="TRAINING SET PERFORMANCE" dataDxfId="54"/>
+    <tableColumn id="4" xr3:uid="{B53A96C4-1D12-4ABC-8DD4-0C92E4ACA4D8}" name="TEST SET USED" dataDxfId="53"/>
+    <tableColumn id="5" xr3:uid="{EC0DA554-107E-442D-A100-80FBBA24ED8D}" name="DEVICE" dataDxfId="52"/>
+    <tableColumn id="6" xr3:uid="{B2533DD9-5E06-4FF5-86BF-E8D7771D354D}" name="ALGORITHM" dataDxfId="51"/>
+    <tableColumn id="7" xr3:uid="{E020E96A-4865-4567-9BAC-8C1AE263B1CF}" name="MAE" dataDxfId="50"/>
+    <tableColumn id="8" xr3:uid="{16341F1A-F688-4436-9319-BA524F079D33}" name="RMSE" dataDxfId="49"/>
+    <tableColumn id="9" xr3:uid="{088318A1-1E7C-4E56-A3F0-0A062096151E}" name="R2" dataDxfId="48">
       <calculatedColumnFormula array="1">-_FV( 2,"540453")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10884,54 +10870,54 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{61FFE7F8-BDFB-44D4-9347-98B8061387D4}" name="Tabela249" displayName="Tabela249" ref="C50:K54" totalsRowShown="0" headerRowDxfId="64" dataDxfId="63" tableBorderDxfId="62">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{61FFE7F8-BDFB-44D4-9347-98B8061387D4}" name="Tabela249" displayName="Tabela249" ref="C50:K54" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46" tableBorderDxfId="45">
   <autoFilter ref="C50:K54" xr:uid="{0CC6D720-2EB7-4AD3-BF62-D45B83368F42}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{82DBB22A-0376-4496-8DD5-75459BAEEE30}" name="DATASET USED" dataDxfId="61"/>
-    <tableColumn id="2" xr3:uid="{41CBB1F7-215A-45A2-BA8F-32A79E3D8F61}" name="NUMBER OF SAMPLES" dataDxfId="60"/>
-    <tableColumn id="3" xr3:uid="{B587A23D-4A2D-489A-ACE6-403ED250C36C}" name="TRAINING SET PERFORMANCE" dataDxfId="59"/>
-    <tableColumn id="4" xr3:uid="{02310B5B-B568-4332-B3E5-FC21C0EAECD5}" name="TEST SET USED" dataDxfId="58"/>
-    <tableColumn id="5" xr3:uid="{1CA3382E-E907-44E3-A2E7-AA671425D9F1}" name="DEVICE" dataDxfId="57"/>
-    <tableColumn id="6" xr3:uid="{E76F86B9-986A-403D-B689-C1530CFC39FE}" name="ALGORITHM" dataDxfId="56"/>
-    <tableColumn id="7" xr3:uid="{3E0011D5-6EDC-4206-8F77-F47EA6CA1457}" name="MAE" dataDxfId="55"/>
-    <tableColumn id="8" xr3:uid="{8AA9FC09-AF58-4633-9A7F-DF7A77818511}" name="RMSE" dataDxfId="54"/>
-    <tableColumn id="9" xr3:uid="{BC7F5CEB-BAFA-4F93-86F6-5F886BAEEC00}" name="R2" dataDxfId="53"/>
+    <tableColumn id="1" xr3:uid="{82DBB22A-0376-4496-8DD5-75459BAEEE30}" name="DATASET USED" dataDxfId="44"/>
+    <tableColumn id="2" xr3:uid="{41CBB1F7-215A-45A2-BA8F-32A79E3D8F61}" name="NUMBER OF SAMPLES" dataDxfId="43"/>
+    <tableColumn id="3" xr3:uid="{B587A23D-4A2D-489A-ACE6-403ED250C36C}" name="TRAINING SET PERFORMANCE" dataDxfId="42"/>
+    <tableColumn id="4" xr3:uid="{02310B5B-B568-4332-B3E5-FC21C0EAECD5}" name="TEST SET USED" dataDxfId="41"/>
+    <tableColumn id="5" xr3:uid="{1CA3382E-E907-44E3-A2E7-AA671425D9F1}" name="DEVICE" dataDxfId="40"/>
+    <tableColumn id="6" xr3:uid="{E76F86B9-986A-403D-B689-C1530CFC39FE}" name="ALGORITHM" dataDxfId="39"/>
+    <tableColumn id="7" xr3:uid="{3E0011D5-6EDC-4206-8F77-F47EA6CA1457}" name="MAE" dataDxfId="38"/>
+    <tableColumn id="8" xr3:uid="{8AA9FC09-AF58-4633-9A7F-DF7A77818511}" name="RMSE" dataDxfId="37"/>
+    <tableColumn id="9" xr3:uid="{BC7F5CEB-BAFA-4F93-86F6-5F886BAEEC00}" name="R2" dataDxfId="36"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{86EB226B-9AAF-424A-8254-F445FEEE8CE0}" name="Tabela173" displayName="Tabela173" ref="C78:K82" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37" tableBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{86EB226B-9AAF-424A-8254-F445FEEE8CE0}" name="Tabela173" displayName="Tabela173" ref="C78:K82" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34" tableBorderDxfId="33">
   <autoFilter ref="C78:K82" xr:uid="{019A7902-81BD-4720-8A3B-4607502D0F58}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{C088EB04-20B2-41DC-964C-EFA26F872006}" name="DATASET USED" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{A334EF0C-295D-45E0-81B3-DF128AAD4D50}" name="NUMBER OF SAMPLES" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{3271F5C9-28DE-4E20-B306-EB96B385BCC4}" name="TRAINING SET PERFORMANCE" dataDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{3F4A4F48-2AA2-4B18-8340-D09DAD48664A}" name="TEST SET USED" dataDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{601253CD-D93A-470D-97B3-3CDF871B2B39}" name="DEVICE" dataDxfId="31"/>
-    <tableColumn id="6" xr3:uid="{DB294BD1-63CC-4331-9982-FAA10E6ED049}" name="ALGORITHM" dataDxfId="30"/>
-    <tableColumn id="7" xr3:uid="{2B7FBB3A-C1FB-4331-8C2B-56F88F827318}" name="MAE" dataDxfId="29"/>
-    <tableColumn id="8" xr3:uid="{D45D0D9F-7A9D-4986-980C-FE44D89D0C39}" name="RMSE" dataDxfId="28"/>
-    <tableColumn id="9" xr3:uid="{0D31959D-E7A8-4A82-BAA9-3F9E0574AB64}" name="R2" dataDxfId="27"/>
+    <tableColumn id="1" xr3:uid="{C088EB04-20B2-41DC-964C-EFA26F872006}" name="DATASET USED" dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{A334EF0C-295D-45E0-81B3-DF128AAD4D50}" name="NUMBER OF SAMPLES" dataDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{3271F5C9-28DE-4E20-B306-EB96B385BCC4}" name="TRAINING SET PERFORMANCE" dataDxfId="30"/>
+    <tableColumn id="4" xr3:uid="{3F4A4F48-2AA2-4B18-8340-D09DAD48664A}" name="TEST SET USED" dataDxfId="29"/>
+    <tableColumn id="5" xr3:uid="{601253CD-D93A-470D-97B3-3CDF871B2B39}" name="DEVICE" dataDxfId="28"/>
+    <tableColumn id="6" xr3:uid="{DB294BD1-63CC-4331-9982-FAA10E6ED049}" name="ALGORITHM" dataDxfId="27"/>
+    <tableColumn id="7" xr3:uid="{2B7FBB3A-C1FB-4331-8C2B-56F88F827318}" name="MAE" dataDxfId="26"/>
+    <tableColumn id="8" xr3:uid="{D45D0D9F-7A9D-4986-980C-FE44D89D0C39}" name="RMSE" dataDxfId="25"/>
+    <tableColumn id="9" xr3:uid="{0D31959D-E7A8-4A82-BAA9-3F9E0574AB64}" name="R2" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{03354D2C-C1F6-4760-B626-F9D03BAF6117}" name="Tabela284" displayName="Tabela284" ref="C90:K94" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25" tableBorderDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{03354D2C-C1F6-4760-B626-F9D03BAF6117}" name="Tabela284" displayName="Tabela284" ref="C90:K94" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22" tableBorderDxfId="21">
   <autoFilter ref="C90:K94" xr:uid="{35FB1E17-82B5-4983-A98B-5BB79048B025}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{6C3E7EBD-1BAD-471C-B038-5E98F89ADEE8}" name="DATASET USED" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{A3B54D9E-A0A4-4E6D-9C60-A30E2504A255}" name="NUMBER OF SAMPLES" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{74585067-6CD7-477E-BE49-72A01EF1D6A8}" name="TRAINING SET PERFORMANCE" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{300E84A7-427F-4C76-B131-3A7CEB564284}" name="TEST SET USED" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{551A84B1-DF83-4622-AE6D-0B0A24655446}" name="DEVICE" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{5882A60D-FA4E-4D09-9CDC-5909B7FC8514}" name="ALGORITHM" dataDxfId="18"/>
-    <tableColumn id="7" xr3:uid="{EA309B82-E083-4FB1-995A-992EBE89F934}" name="MAE" dataDxfId="17"/>
-    <tableColumn id="8" xr3:uid="{ACB9CBEC-F2C1-4DD1-866E-B3067BDA8AC0}" name="RMSE" dataDxfId="16"/>
-    <tableColumn id="9" xr3:uid="{4A220035-6F92-4751-9F8C-E1ED49D4D881}" name="R2" dataDxfId="15">
+    <tableColumn id="1" xr3:uid="{6C3E7EBD-1BAD-471C-B038-5E98F89ADEE8}" name="DATASET USED" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{A3B54D9E-A0A4-4E6D-9C60-A30E2504A255}" name="NUMBER OF SAMPLES" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{74585067-6CD7-477E-BE49-72A01EF1D6A8}" name="TRAINING SET PERFORMANCE" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{300E84A7-427F-4C76-B131-3A7CEB564284}" name="TEST SET USED" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{551A84B1-DF83-4622-AE6D-0B0A24655446}" name="DEVICE" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{5882A60D-FA4E-4D09-9CDC-5909B7FC8514}" name="ALGORITHM" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{EA309B82-E083-4FB1-995A-992EBE89F934}" name="MAE" dataDxfId="14"/>
+    <tableColumn id="8" xr3:uid="{ACB9CBEC-F2C1-4DD1-866E-B3067BDA8AC0}" name="RMSE" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{4A220035-6F92-4751-9F8C-E1ED49D4D881}" name="R2" dataDxfId="12">
       <calculatedColumnFormula array="1">-_FV( 2,"540453")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10940,18 +10926,18 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00F2ABAC-EDA2-40E9-96B9-9E752CE1E991}" name="Tabela2495" displayName="Tabela2495" ref="C97:K101" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" tableBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00F2ABAC-EDA2-40E9-96B9-9E752CE1E991}" name="Tabela2495" displayName="Tabela2495" ref="C97:K101" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" tableBorderDxfId="9">
   <autoFilter ref="C97:K101" xr:uid="{A29C1DFD-FE82-4164-A7D8-AA196353E6CD}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{3B6D27C9-7478-4FF4-8B20-90C0A6B4BD51}" name="DATASET USED" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{E156DDB2-F556-4E4D-832F-8BD5A54DC901}" name="NUMBER OF SAMPLES" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{0ED86B38-76F3-45CE-914E-F3CC586F5BF4}" name="TRAINING SET PERFORMANCE" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{04614F0D-6A07-43AA-85BF-B6B70108EFBE}" name="TEST SET USED" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{7A05CA5D-C9E9-45BB-8593-2F29673965DF}" name="DEVICE" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{88766DA0-6B66-4865-BC70-C58815CDAD6A}" name="ALGORITHM" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{86AD69B2-5023-4248-997E-97980406F9AD}" name="MAE" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{F1D939D3-5FEF-4BC2-8A1E-E12525260989}" name="RMSE" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{9B192FD9-2AF7-4BE8-ACD6-AC9E063C0146}" name="R2" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{3B6D27C9-7478-4FF4-8B20-90C0A6B4BD51}" name="DATASET USED" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{E156DDB2-F556-4E4D-832F-8BD5A54DC901}" name="NUMBER OF SAMPLES" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{0ED86B38-76F3-45CE-914E-F3CC586F5BF4}" name="TRAINING SET PERFORMANCE" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{04614F0D-6A07-43AA-85BF-B6B70108EFBE}" name="TEST SET USED" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{7A05CA5D-C9E9-45BB-8593-2F29673965DF}" name="DEVICE" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{88766DA0-6B66-4865-BC70-C58815CDAD6A}" name="ALGORITHM" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{86AD69B2-5023-4248-997E-97980406F9AD}" name="MAE" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{F1D939D3-5FEF-4BC2-8A1E-E12525260989}" name="RMSE" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{9B192FD9-2AF7-4BE8-ACD6-AC9E063C0146}" name="R2" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -11256,7 +11242,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9805F76B-573A-4178-B9E3-1E65A92A3888}">
   <dimension ref="B2:P114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E61" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H88" sqref="H88"/>
     </sheetView>
   </sheetViews>
@@ -11281,54 +11267,54 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
     </row>
     <row r="6" spans="2:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="F6" s="8" t="s">
@@ -11610,54 +11596,54 @@
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B26" s="30" t="s">
+      <c r="B26" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="30"/>
-      <c r="N26" s="30"/>
-      <c r="O26" s="30"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="31"/>
+      <c r="O26" s="31"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="30"/>
-      <c r="N27" s="30"/>
-      <c r="O27" s="30"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="31"/>
+      <c r="O27" s="31"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="30"/>
-      <c r="N28" s="30"/>
-      <c r="O28" s="30"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="31"/>
+      <c r="O28" s="31"/>
     </row>
     <row r="30" spans="2:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="F30" s="8" t="s">
@@ -12253,54 +12239,54 @@
       </c>
     </row>
     <row r="73" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B73" s="30" t="s">
+      <c r="B73" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="C73" s="30"/>
-      <c r="D73" s="30"/>
-      <c r="E73" s="30"/>
-      <c r="F73" s="30"/>
-      <c r="G73" s="30"/>
-      <c r="H73" s="30"/>
-      <c r="I73" s="30"/>
-      <c r="J73" s="30"/>
-      <c r="K73" s="30"/>
-      <c r="L73" s="30"/>
-      <c r="M73" s="30"/>
-      <c r="N73" s="30"/>
-      <c r="O73" s="30"/>
+      <c r="C73" s="31"/>
+      <c r="D73" s="31"/>
+      <c r="E73" s="31"/>
+      <c r="F73" s="31"/>
+      <c r="G73" s="31"/>
+      <c r="H73" s="31"/>
+      <c r="I73" s="31"/>
+      <c r="J73" s="31"/>
+      <c r="K73" s="31"/>
+      <c r="L73" s="31"/>
+      <c r="M73" s="31"/>
+      <c r="N73" s="31"/>
+      <c r="O73" s="31"/>
     </row>
     <row r="74" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B74" s="30"/>
-      <c r="C74" s="30"/>
-      <c r="D74" s="30"/>
-      <c r="E74" s="30"/>
-      <c r="F74" s="30"/>
-      <c r="G74" s="30"/>
-      <c r="H74" s="30"/>
-      <c r="I74" s="30"/>
-      <c r="J74" s="30"/>
-      <c r="K74" s="30"/>
-      <c r="L74" s="30"/>
-      <c r="M74" s="30"/>
-      <c r="N74" s="30"/>
-      <c r="O74" s="30"/>
+      <c r="B74" s="31"/>
+      <c r="C74" s="31"/>
+      <c r="D74" s="31"/>
+      <c r="E74" s="31"/>
+      <c r="F74" s="31"/>
+      <c r="G74" s="31"/>
+      <c r="H74" s="31"/>
+      <c r="I74" s="31"/>
+      <c r="J74" s="31"/>
+      <c r="K74" s="31"/>
+      <c r="L74" s="31"/>
+      <c r="M74" s="31"/>
+      <c r="N74" s="31"/>
+      <c r="O74" s="31"/>
     </row>
     <row r="75" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B75" s="30"/>
-      <c r="C75" s="30"/>
-      <c r="D75" s="30"/>
-      <c r="E75" s="30"/>
-      <c r="F75" s="30"/>
-      <c r="G75" s="30"/>
-      <c r="H75" s="30"/>
-      <c r="I75" s="30"/>
-      <c r="J75" s="30"/>
-      <c r="K75" s="30"/>
-      <c r="L75" s="30"/>
-      <c r="M75" s="30"/>
-      <c r="N75" s="30"/>
-      <c r="O75" s="30"/>
+      <c r="B75" s="31"/>
+      <c r="C75" s="31"/>
+      <c r="D75" s="31"/>
+      <c r="E75" s="31"/>
+      <c r="F75" s="31"/>
+      <c r="G75" s="31"/>
+      <c r="H75" s="31"/>
+      <c r="I75" s="31"/>
+      <c r="J75" s="31"/>
+      <c r="K75" s="31"/>
+      <c r="L75" s="31"/>
+      <c r="M75" s="31"/>
+      <c r="N75" s="31"/>
+      <c r="O75" s="31"/>
     </row>
     <row r="77" spans="2:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="F77" s="8" t="s">
@@ -12466,7 +12452,7 @@
       <c r="H82" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="I82" s="31" t="s">
+      <c r="I82" s="30" t="s">
         <v>101</v>
       </c>
       <c r="J82" s="10" t="s">
@@ -12910,147 +12896,147 @@
     <mergeCell ref="B73:O75"/>
   </mergeCells>
   <conditionalFormatting sqref="L8:L9 L11">
-    <cfRule type="expression" dxfId="119" priority="138">
+    <cfRule type="expression" dxfId="117" priority="138">
       <formula>L8=MAX($L8:$L12)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K32:K35">
-    <cfRule type="cellIs" dxfId="118" priority="68" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="116" priority="68" operator="greaterThan">
       <formula>"0.6"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="69" operator="between">
+    <cfRule type="cellIs" dxfId="115" priority="69" operator="between">
       <formula>"0.4999"</formula>
       <formula>"0.5999"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K44:K46">
-    <cfRule type="cellIs" dxfId="116" priority="65" operator="between">
+    <cfRule type="cellIs" dxfId="114" priority="65" operator="between">
       <formula>"0.4999"</formula>
       <formula>"0.5999"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K51:K53">
-    <cfRule type="cellIs" dxfId="115" priority="57" operator="lessThan">
+    <cfRule type="cellIs" dxfId="113" priority="57" operator="lessThan">
       <formula>"0.499"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="58" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="112" priority="58" operator="greaterThan">
       <formula>"0.6"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="59" operator="between">
+    <cfRule type="cellIs" dxfId="111" priority="59" operator="between">
       <formula>"0.4999"</formula>
       <formula>"0.5999"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="expression" dxfId="112" priority="50">
+    <cfRule type="expression" dxfId="110" priority="50">
       <formula>L12=MAX($L12:$L16)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8:L12">
-    <cfRule type="cellIs" dxfId="111" priority="49" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="109" priority="49" operator="greaterThan">
       <formula>"0.6"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11">
-    <cfRule type="cellIs" dxfId="110" priority="48" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="108" priority="48" operator="greaterThan">
       <formula>"0.98"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N32:N35">
-    <cfRule type="cellIs" dxfId="109" priority="42" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="107" priority="42" operator="greaterThan">
       <formula>"0.6"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="43" operator="between">
+    <cfRule type="cellIs" dxfId="106" priority="43" operator="between">
       <formula>"0.4999"</formula>
       <formula>"0.5999"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K34">
-    <cfRule type="cellIs" dxfId="107" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="105" priority="26" operator="greaterThan">
       <formula>"0.91"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K44:K47">
-    <cfRule type="cellIs" dxfId="106" priority="41" operator="lessThan">
+    <cfRule type="cellIs" dxfId="104" priority="41" operator="lessThan">
       <formula>0.4999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="63" operator="between">
+    <cfRule type="cellIs" dxfId="103" priority="63" operator="between">
       <formula>"-10.0"</formula>
       <formula>"0.499"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="64" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="102" priority="64" operator="greaterThan">
       <formula>"0.6"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="40" operator="between">
+    <cfRule type="cellIs" dxfId="101" priority="40" operator="between">
       <formula>0.5</formula>
       <formula>0.599999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="39" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="100" priority="39" operator="greaterThan">
       <formula>0.6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K79:K82">
-    <cfRule type="cellIs" dxfId="52" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="99" priority="16" operator="greaterThan">
       <formula>"0.6"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="17" operator="between">
+    <cfRule type="cellIs" dxfId="98" priority="17" operator="between">
       <formula>"0.4999"</formula>
       <formula>"0.5999"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K91:K93">
-    <cfRule type="cellIs" dxfId="50" priority="15" operator="between">
+    <cfRule type="cellIs" dxfId="97" priority="15" operator="between">
       <formula>"0.4999"</formula>
       <formula>"0.5999"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K98:K100">
-    <cfRule type="cellIs" dxfId="49" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="96" priority="10" operator="lessThan">
       <formula>"0.499"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="95" priority="11" operator="greaterThan">
       <formula>"0.6"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="12" operator="between">
+    <cfRule type="cellIs" dxfId="94" priority="12" operator="between">
       <formula>"0.4999"</formula>
       <formula>"0.5999"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K81">
-    <cfRule type="cellIs" dxfId="44" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="93" priority="4" operator="greaterThan">
       <formula>"0.91"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K91:K94">
-    <cfRule type="cellIs" dxfId="39" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="92" priority="5" operator="greaterThan">
       <formula>0.6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="91" priority="6" operator="between">
       <formula>0.5</formula>
       <formula>0.599999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="90" priority="7" operator="lessThan">
       <formula>0.4999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="13" operator="between">
+    <cfRule type="cellIs" dxfId="89" priority="13" operator="between">
       <formula>"-10.0"</formula>
       <formula>"0.499"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="88" priority="14" operator="greaterThan">
       <formula>"0.6"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N79:N82">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="87" priority="2" operator="greaterThan">
       <formula>"0.6"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="86" priority="3" operator="between">
       <formula>"0.4999"</formula>
       <formula>"0.5999"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N81">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="85" priority="1" operator="greaterThan">
       <formula>"0.91"</formula>
     </cfRule>
   </conditionalFormatting>
